--- a/IC files/results/longDTA/processedICs_removedNonDrinkers_longDTA.xlsx
+++ b/IC files/results/longDTA/processedICs_removedNonDrinkers_longDTA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="500">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -1247,6 +1247,9 @@
     <t xml:space="preserve">CCW1_Total_FrequencyRepetitiveBehavior</t>
   </si>
   <si>
+    <t xml:space="preserve">CCW1_Total_PlaceErrorNonAdjusted</t>
+  </si>
+  <si>
     <t xml:space="preserve">CCW1_Total_PlaceErrorAdjusted</t>
   </si>
   <si>
@@ -1335,6 +1338,9 @@
   </si>
   <si>
     <t xml:space="preserve">CCW2_Total_FrequencyRepetitiveBehavior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCW2_Total_PlaceErrorNonAdjusted</t>
   </si>
   <si>
     <t xml:space="preserve">CCW2_Total_PlaceErrorAdjusted</t>
@@ -3230,13 +3236,19 @@
       <c r="QV1" t="s">
         <v>463</v>
       </c>
+      <c r="QW1" t="s">
+        <v>464</v>
+      </c>
+      <c r="QX1" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C2" t="n">
         <v>2139</v>
@@ -4238,7 +4250,7 @@
         <v>128</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.77906976744186</v>
+        <v>0.779069767441861</v>
       </c>
       <c r="MS2" t="n">
         <v>957</v>
@@ -4262,7 +4274,7 @@
         <v>110</v>
       </c>
       <c r="MZ2" t="n">
-        <v>0.77906976744186</v>
+        <v>0.779069767441861</v>
       </c>
       <c r="NA2" t="n">
         <v>221</v>
@@ -4286,16 +4298,16 @@
         <v>18</v>
       </c>
       <c r="NH2" t="n">
-        <v>0.77906976744186</v>
+        <v>0.779069767441861</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.77906976744186</v>
+        <v>0.779069767441861</v>
       </c>
       <c r="NJ2" t="n">
         <v>0.220930232558139</v>
       </c>
       <c r="NK2" t="n">
-        <v>0.77906976744186</v>
+        <v>0.779069767441861</v>
       </c>
       <c r="NL2" t="n">
         <v>0.220930232558139</v>
@@ -4406,136 +4418,136 @@
         <v>69</v>
       </c>
       <c r="OV2" t="n">
+        <v>0.656862745098039</v>
+      </c>
+      <c r="OW2" t="n">
         <v>0.357894736842105</v>
       </c>
-      <c r="OW2" t="n">
+      <c r="OX2" t="n">
         <v>0.305263157894737</v>
       </c>
-      <c r="OX2" t="n">
+      <c r="OY2" t="n">
         <v>1232</v>
       </c>
-      <c r="OY2" t="n">
+      <c r="OZ2" t="n">
         <v>110</v>
       </c>
-      <c r="OZ2" t="n">
+      <c r="PA2" t="n">
         <v>233</v>
       </c>
-      <c r="PA2" t="n">
+      <c r="PB2" t="n">
         <v>11</v>
       </c>
-      <c r="PB2" t="n">
+      <c r="PC2" t="n">
         <v>99</v>
       </c>
-      <c r="PC2" t="n">
+      <c r="PD2" t="n">
         <v>122</v>
       </c>
-      <c r="PD2" t="n">
+      <c r="PE2" t="n">
         <v>68</v>
       </c>
-      <c r="PE2" t="n">
+      <c r="PF2" t="n">
         <v>0.656862745098039</v>
       </c>
-      <c r="PF2" t="n">
+      <c r="PG2" t="n">
         <v>0.347826086956522</v>
       </c>
-      <c r="PG2" t="n">
+      <c r="PH2" t="n">
         <v>0.304347826086957</v>
       </c>
-      <c r="PH2" t="n">
+      <c r="PI2" t="n">
         <v>0</v>
-      </c>
-      <c r="PI2" t="n">
-        <v>4</v>
       </c>
       <c r="PJ2" t="n">
         <v>4</v>
       </c>
       <c r="PK2" t="n">
+        <v>4</v>
+      </c>
+      <c r="PL2" t="n">
         <v>1</v>
       </c>
-      <c r="PL2" t="n">
+      <c r="PM2" t="n">
         <v>3</v>
-      </c>
-      <c r="PM2" t="n">
-        <v>1</v>
       </c>
       <c r="PN2" t="n">
         <v>1</v>
       </c>
       <c r="PO2" t="n">
+        <v>1</v>
+      </c>
+      <c r="PP2" t="n">
         <v>0.344736842105263</v>
       </c>
-      <c r="PP2" t="n">
+      <c r="PQ2" t="n">
         <v>0.655263157894737</v>
       </c>
-      <c r="PQ2" t="n">
+      <c r="PR2" t="n">
         <v>0.33695652173913</v>
       </c>
-      <c r="PR2" t="n">
+      <c r="PS2" t="n">
         <v>0.66304347826087</v>
       </c>
-      <c r="PS2" t="n">
+      <c r="PT2" t="n">
         <v>1030</v>
       </c>
-      <c r="PT2" t="n">
+      <c r="PU2" t="n">
         <v>167</v>
       </c>
-      <c r="PU2" t="n">
+      <c r="PV2" t="n">
         <v>298</v>
       </c>
-      <c r="PV2" t="n">
+      <c r="PW2" t="n">
         <v>36</v>
       </c>
-      <c r="PW2" t="n">
+      <c r="PX2" t="n">
         <v>131</v>
       </c>
-      <c r="PX2" t="n">
+      <c r="PY2" t="n">
         <v>155</v>
       </c>
-      <c r="PY2" t="n">
+      <c r="PZ2" t="n">
         <v>84</v>
       </c>
-      <c r="PZ2" t="n">
+      <c r="QA2" t="n">
+        <v>0.770992366412214</v>
+      </c>
+      <c r="QB2" t="n">
         <v>0.511450381679389</v>
       </c>
-      <c r="QA2" t="n">
+      <c r="QC2" t="n">
         <v>0.259541984732824</v>
       </c>
-      <c r="QB2" t="n">
+      <c r="QD2" t="n">
         <v>1030</v>
       </c>
-      <c r="QC2" t="n">
+      <c r="QE2" t="n">
         <v>164</v>
       </c>
-      <c r="QD2" t="n">
+      <c r="QF2" t="n">
         <v>298</v>
       </c>
-      <c r="QE2" t="n">
+      <c r="QG2" t="n">
         <v>33</v>
       </c>
-      <c r="QF2" t="n">
+      <c r="QH2" t="n">
         <v>131</v>
       </c>
-      <c r="QG2" t="n">
+      <c r="QI2" t="n">
         <v>155</v>
       </c>
-      <c r="QH2" t="n">
+      <c r="QJ2" t="n">
         <v>84</v>
       </c>
-      <c r="QI2" t="n">
+      <c r="QK2" t="n">
         <v>0.770992366412214</v>
       </c>
-      <c r="QJ2" t="n">
+      <c r="QL2" t="n">
         <v>0.511450381679389</v>
       </c>
-      <c r="QK2" t="n">
+      <c r="QM2" t="n">
         <v>0.259541984732824</v>
-      </c>
-      <c r="QL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="QM2" t="n">
-        <v>3</v>
       </c>
       <c r="QN2" t="n">
         <v>0</v>
@@ -4546,27 +4558,33 @@
       <c r="QP2" t="n">
         <v>0</v>
       </c>
-      <c r="QQ2"/>
-      <c r="QR2"/>
-      <c r="QS2" t="n">
-        <v>0.448473282442748</v>
-      </c>
-      <c r="QT2" t="n">
-        <v>0.551526717557252</v>
-      </c>
+      <c r="QQ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="QR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="QS2"/>
+      <c r="QT2"/>
       <c r="QU2" t="n">
         <v>0.448473282442748</v>
       </c>
       <c r="QV2" t="n">
+        <v>0.551526717557252</v>
+      </c>
+      <c r="QW2" t="n">
+        <v>0.448473282442748</v>
+      </c>
+      <c r="QX2" t="n">
         <v>0.551526717557252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C3" t="n">
         <v>2523</v>
@@ -5286,13 +5304,15 @@
       <c r="QT3"/>
       <c r="QU3"/>
       <c r="QV3"/>
+      <c r="QW3"/>
+      <c r="QX3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B4" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C4" t="n">
         <v>2183</v>
@@ -6466,171 +6486,177 @@
         <v>64</v>
       </c>
       <c r="OV4" t="n">
+        <v>0.660377358490566</v>
+      </c>
+      <c r="OW4" t="n">
         <v>0.398058252427184</v>
       </c>
-      <c r="OW4" t="n">
+      <c r="OX4" t="n">
         <v>0.262135922330097</v>
       </c>
-      <c r="OX4" t="n">
+      <c r="OY4" t="n">
         <v>897</v>
       </c>
-      <c r="OY4" t="n">
+      <c r="OZ4" t="n">
         <v>108</v>
       </c>
-      <c r="OZ4" t="n">
+      <c r="PA4" t="n">
         <v>254</v>
       </c>
-      <c r="PA4" t="n">
+      <c r="PB4" t="n">
         <v>7</v>
       </c>
-      <c r="PB4" t="n">
+      <c r="PC4" t="n">
         <v>101</v>
       </c>
-      <c r="PC4" t="n">
+      <c r="PD4" t="n">
         <v>147</v>
       </c>
-      <c r="PD4" t="n">
+      <c r="PE4" t="n">
         <v>61</v>
       </c>
-      <c r="PE4" t="n">
+      <c r="PF4" t="n">
         <v>0.660377358490566</v>
       </c>
-      <c r="PF4" t="n">
+      <c r="PG4" t="n">
         <v>0.397959183673469</v>
       </c>
-      <c r="PG4" t="n">
+      <c r="PH4" t="n">
         <v>0.275510204081633</v>
       </c>
-      <c r="PH4" t="n">
+      <c r="PI4" t="n">
         <v>68</v>
       </c>
-      <c r="PI4" t="n">
+      <c r="PJ4" t="n">
         <v>10</v>
       </c>
-      <c r="PJ4" t="n">
+      <c r="PK4" t="n">
         <v>14</v>
-      </c>
-      <c r="PK4" t="n">
-        <v>5</v>
       </c>
       <c r="PL4" t="n">
         <v>5</v>
       </c>
       <c r="PM4" t="n">
+        <v>5</v>
+      </c>
+      <c r="PN4" t="n">
         <v>8</v>
       </c>
-      <c r="PN4" t="n">
+      <c r="PO4" t="n">
         <v>3</v>
       </c>
-      <c r="PO4" t="n">
+      <c r="PP4" t="n">
         <v>0.364077669902913</v>
       </c>
-      <c r="PP4" t="n">
+      <c r="PQ4" t="n">
         <v>0.635922330097087</v>
       </c>
-      <c r="PQ4" t="n">
+      <c r="PR4" t="n">
         <v>0.36734693877551</v>
       </c>
-      <c r="PR4" t="n">
+      <c r="PS4" t="n">
         <v>0.63265306122449</v>
       </c>
-      <c r="PS4" t="n">
+      <c r="PT4" t="n">
         <v>621</v>
       </c>
-      <c r="PT4" t="n">
+      <c r="PU4" t="n">
         <v>122</v>
       </c>
-      <c r="PU4" t="n">
+      <c r="PV4" t="n">
         <v>249</v>
       </c>
-      <c r="PV4" t="n">
+      <c r="PW4" t="n">
         <v>6</v>
       </c>
-      <c r="PW4" t="n">
+      <c r="PX4" t="n">
         <v>116</v>
       </c>
-      <c r="PX4" t="n">
+      <c r="PY4" t="n">
         <v>126</v>
       </c>
-      <c r="PY4" t="n">
+      <c r="PZ4" t="n">
         <v>65</v>
       </c>
-      <c r="PZ4" t="n">
+      <c r="QA4" t="n">
+        <v>0.672413793103448</v>
+      </c>
+      <c r="QB4" t="n">
         <v>0.431034482758621</v>
       </c>
-      <c r="QA4" t="n">
+      <c r="QC4" t="n">
         <v>0.241379310344828</v>
       </c>
-      <c r="QB4" t="n">
+      <c r="QD4" t="n">
         <v>621</v>
       </c>
-      <c r="QC4" t="n">
+      <c r="QE4" t="n">
         <v>115</v>
       </c>
-      <c r="QD4" t="n">
+      <c r="QF4" t="n">
         <v>241</v>
       </c>
-      <c r="QE4" t="n">
+      <c r="QG4" t="n">
         <v>5</v>
       </c>
-      <c r="QF4" t="n">
+      <c r="QH4" t="n">
         <v>110</v>
       </c>
-      <c r="QG4" t="n">
+      <c r="QI4" t="n">
         <v>124</v>
       </c>
-      <c r="QH4" t="n">
+      <c r="QJ4" t="n">
         <v>64</v>
       </c>
-      <c r="QI4" t="n">
+      <c r="QK4" t="n">
         <v>0.672413793103448</v>
       </c>
-      <c r="QJ4" t="n">
+      <c r="QL4" t="n">
         <v>0.436363636363636</v>
       </c>
-      <c r="QK4" t="n">
+      <c r="QM4" t="n">
         <v>0.236363636363636</v>
       </c>
-      <c r="QL4" t="n">
+      <c r="QN4" t="n">
         <v>0</v>
       </c>
-      <c r="QM4" t="n">
+      <c r="QO4" t="n">
         <v>7</v>
       </c>
-      <c r="QN4" t="n">
+      <c r="QP4" t="n">
         <v>8</v>
       </c>
-      <c r="QO4" t="n">
+      <c r="QQ4" t="n">
         <v>1</v>
       </c>
-      <c r="QP4" t="n">
+      <c r="QR4" t="n">
         <v>6</v>
       </c>
-      <c r="QQ4" t="n">
+      <c r="QS4" t="n">
         <v>2</v>
       </c>
-      <c r="QR4" t="n">
+      <c r="QT4" t="n">
         <v>1</v>
       </c>
-      <c r="QS4" t="n">
+      <c r="QU4" t="n">
         <v>0.383620689655172</v>
       </c>
-      <c r="QT4" t="n">
+      <c r="QV4" t="n">
         <v>0.616379310344828</v>
       </c>
-      <c r="QU4" t="n">
+      <c r="QW4" t="n">
         <v>0.386363636363636</v>
       </c>
-      <c r="QV4" t="n">
+      <c r="QX4" t="n">
         <v>0.613636363636364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>471</v>
+      </c>
+      <c r="B5" t="s">
         <v>469</v>
-      </c>
-      <c r="B5" t="s">
-        <v>467</v>
       </c>
       <c r="C5" t="n">
         <v>2959</v>
@@ -7350,13 +7376,15 @@
       <c r="QT5"/>
       <c r="QU5"/>
       <c r="QV5"/>
+      <c r="QW5"/>
+      <c r="QX5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B6" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C6" t="n">
         <v>2364</v>
@@ -8076,13 +8104,15 @@
       <c r="QT6"/>
       <c r="QU6"/>
       <c r="QV6"/>
+      <c r="QW6"/>
+      <c r="QX6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C7" t="n">
         <v>2482</v>
@@ -8859,7 +8889,7 @@
         <v>0.31315330738083</v>
       </c>
       <c r="JO7" t="n">
-        <v>0.68684669261917</v>
+        <v>0.686846692619171</v>
       </c>
       <c r="JP7" t="n">
         <v>57</v>
@@ -9256,171 +9286,177 @@
         <v>68</v>
       </c>
       <c r="OV7" t="n">
+        <v>0.63953488372093</v>
+      </c>
+      <c r="OW7" t="n">
         <v>0.414634146341463</v>
       </c>
-      <c r="OW7" t="n">
+      <c r="OX7" t="n">
         <v>0.219512195121951</v>
       </c>
-      <c r="OX7" t="n">
+      <c r="OY7" t="n">
         <v>1094</v>
       </c>
-      <c r="OY7" t="n">
+      <c r="OZ7" t="n">
         <v>78</v>
       </c>
-      <c r="OZ7" t="n">
+      <c r="PA7" t="n">
         <v>202</v>
       </c>
-      <c r="PA7" t="n">
+      <c r="PB7" t="n">
         <v>6</v>
       </c>
-      <c r="PB7" t="n">
+      <c r="PC7" t="n">
         <v>72</v>
       </c>
-      <c r="PC7" t="n">
+      <c r="PD7" t="n">
         <v>125</v>
       </c>
-      <c r="PD7" t="n">
+      <c r="PE7" t="n">
         <v>57</v>
       </c>
-      <c r="PE7" t="n">
+      <c r="PF7" t="n">
         <v>0.63953488372093</v>
       </c>
-      <c r="PF7" t="n">
+      <c r="PG7" t="n">
         <v>0.397058823529412</v>
       </c>
-      <c r="PG7" t="n">
+      <c r="PH7" t="n">
         <v>0.220588235294118</v>
       </c>
-      <c r="PH7" t="n">
+      <c r="PI7" t="n">
         <v>53</v>
       </c>
-      <c r="PI7" t="n">
+      <c r="PJ7" t="n">
         <v>15</v>
       </c>
-      <c r="PJ7" t="n">
+      <c r="PK7" t="n">
         <v>42</v>
       </c>
-      <c r="PK7" t="n">
+      <c r="PL7" t="n">
         <v>1</v>
       </c>
-      <c r="PL7" t="n">
+      <c r="PM7" t="n">
         <v>14</v>
       </c>
-      <c r="PM7" t="n">
+      <c r="PN7" t="n">
         <v>28</v>
       </c>
-      <c r="PN7" t="n">
+      <c r="PO7" t="n">
         <v>11</v>
       </c>
-      <c r="PO7" t="n">
+      <c r="PP7" t="n">
         <v>0.365853658536585</v>
       </c>
-      <c r="PP7" t="n">
+      <c r="PQ7" t="n">
         <v>0.634146341463415</v>
       </c>
-      <c r="PQ7" t="n">
+      <c r="PR7" t="n">
         <v>0.352941176470588</v>
       </c>
-      <c r="PR7" t="n">
+      <c r="PS7" t="n">
         <v>0.647058823529412</v>
       </c>
-      <c r="PS7" t="n">
+      <c r="PT7" t="n">
         <v>1480</v>
       </c>
-      <c r="PT7" t="n">
+      <c r="PU7" t="n">
         <v>102</v>
       </c>
-      <c r="PU7" t="n">
+      <c r="PV7" t="n">
         <v>269</v>
       </c>
-      <c r="PV7" t="n">
+      <c r="PW7" t="n">
         <v>4</v>
       </c>
-      <c r="PW7" t="n">
+      <c r="PX7" t="n">
         <v>98</v>
       </c>
-      <c r="PX7" t="n">
+      <c r="PY7" t="n">
         <v>164</v>
       </c>
-      <c r="PY7" t="n">
+      <c r="PZ7" t="n">
         <v>80</v>
       </c>
-      <c r="PZ7" t="n">
+      <c r="QA7" t="n">
+        <v>0.622448979591837</v>
+      </c>
+      <c r="QB7" t="n">
         <v>0.397959183673469</v>
       </c>
-      <c r="QA7" t="n">
+      <c r="QC7" t="n">
         <v>0.224489795918367</v>
       </c>
-      <c r="QB7" t="n">
+      <c r="QD7" t="n">
         <v>1374</v>
       </c>
-      <c r="QC7" t="n">
+      <c r="QE7" t="n">
         <v>93</v>
       </c>
-      <c r="QD7" t="n">
+      <c r="QF7" t="n">
         <v>247</v>
       </c>
-      <c r="QE7" t="n">
+      <c r="QG7" t="n">
         <v>3</v>
       </c>
-      <c r="QF7" t="n">
+      <c r="QH7" t="n">
         <v>90</v>
       </c>
-      <c r="QG7" t="n">
+      <c r="QI7" t="n">
         <v>151</v>
       </c>
-      <c r="QH7" t="n">
+      <c r="QJ7" t="n">
         <v>74</v>
       </c>
-      <c r="QI7" t="n">
+      <c r="QK7" t="n">
         <v>0.622448979591837</v>
       </c>
-      <c r="QJ7" t="n">
+      <c r="QL7" t="n">
         <v>0.411111111111111</v>
       </c>
-      <c r="QK7" t="n">
+      <c r="QM7" t="n">
         <v>0.2</v>
       </c>
-      <c r="QL7" t="n">
+      <c r="QN7" t="n">
         <v>106</v>
       </c>
-      <c r="QM7" t="n">
+      <c r="QO7" t="n">
         <v>9</v>
       </c>
-      <c r="QN7" t="n">
+      <c r="QP7" t="n">
         <v>22</v>
       </c>
-      <c r="QO7" t="n">
+      <c r="QQ7" t="n">
         <v>1</v>
       </c>
-      <c r="QP7" t="n">
+      <c r="QR7" t="n">
         <v>8</v>
       </c>
-      <c r="QQ7" t="n">
+      <c r="QS7" t="n">
         <v>13</v>
       </c>
-      <c r="QR7" t="n">
+      <c r="QT7" t="n">
         <v>6</v>
       </c>
-      <c r="QS7" t="n">
+      <c r="QU7" t="n">
         <v>0.354591836734694</v>
       </c>
-      <c r="QT7" t="n">
+      <c r="QV7" t="n">
         <v>0.645408163265306</v>
       </c>
-      <c r="QU7" t="n">
+      <c r="QW7" t="n">
         <v>0.358333333333333</v>
       </c>
-      <c r="QV7" t="n">
+      <c r="QX7" t="n">
         <v>0.641666666666667</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B8" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C8" t="n">
         <v>1774</v>
@@ -9531,7 +9567,7 @@
         <v>130</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.51497005988024</v>
+        <v>0.514970059880239</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
@@ -9555,10 +9591,10 @@
         <v>8</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.51497005988024</v>
+        <v>0.514970059880239</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.48502994011976</v>
+        <v>0.485029940119761</v>
       </c>
       <c r="AW8" t="n">
         <v>4040</v>
@@ -9852,7 +9888,7 @@
         <v>0.691860465116279</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.77906976744186</v>
+        <v>0.779069767441861</v>
       </c>
       <c r="EQ8" t="n">
         <v>0</v>
@@ -10594,171 +10630,177 @@
         <v>60</v>
       </c>
       <c r="OV8" t="n">
+        <v>0.693877551020408</v>
+      </c>
+      <c r="OW8" t="n">
         <v>0.51063829787234</v>
       </c>
-      <c r="OW8" t="n">
+      <c r="OX8" t="n">
         <v>0.180851063829787</v>
       </c>
-      <c r="OX8" t="n">
+      <c r="OY8" t="n">
         <v>669</v>
       </c>
-      <c r="OY8" t="n">
+      <c r="OZ8" t="n">
         <v>106</v>
       </c>
-      <c r="OZ8" t="n">
+      <c r="PA8" t="n">
         <v>236</v>
       </c>
-      <c r="PA8" t="n">
+      <c r="PB8" t="n">
         <v>10</v>
       </c>
-      <c r="PB8" t="n">
+      <c r="PC8" t="n">
         <v>96</v>
       </c>
-      <c r="PC8" t="n">
+      <c r="PD8" t="n">
         <v>133</v>
       </c>
-      <c r="PD8" t="n">
+      <c r="PE8" t="n">
         <v>59</v>
       </c>
-      <c r="PE8" t="n">
+      <c r="PF8" t="n">
         <v>0.693877551020408</v>
       </c>
-      <c r="PF8" t="n">
+      <c r="PG8" t="n">
         <v>0.510869565217391</v>
       </c>
-      <c r="PG8" t="n">
+      <c r="PH8" t="n">
         <v>0.173913043478261</v>
       </c>
-      <c r="PH8" t="n">
+      <c r="PI8" t="n">
         <v>0</v>
       </c>
-      <c r="PI8" t="n">
+      <c r="PJ8" t="n">
         <v>3</v>
       </c>
-      <c r="PJ8" t="n">
+      <c r="PK8" t="n">
         <v>5</v>
       </c>
-      <c r="PK8" t="n">
+      <c r="PL8" t="n">
         <v>1</v>
       </c>
-      <c r="PL8" t="n">
+      <c r="PM8" t="n">
         <v>2</v>
       </c>
-      <c r="PM8" t="n">
+      <c r="PN8" t="n">
         <v>3</v>
       </c>
-      <c r="PN8" t="n">
+      <c r="PO8" t="n">
         <v>1</v>
       </c>
-      <c r="PO8" t="n">
+      <c r="PP8" t="n">
         <v>0.428191489361702</v>
       </c>
-      <c r="PP8" t="n">
+      <c r="PQ8" t="n">
         <v>0.571808510638298</v>
       </c>
-      <c r="PQ8" t="n">
+      <c r="PR8" t="n">
         <v>0.426630434782609</v>
       </c>
-      <c r="PR8" t="n">
+      <c r="PS8" t="n">
         <v>0.573369565217391</v>
       </c>
-      <c r="PS8" t="n">
+      <c r="PT8" t="n">
         <v>782</v>
       </c>
-      <c r="PT8" t="n">
+      <c r="PU8" t="n">
         <v>111</v>
       </c>
-      <c r="PU8" t="n">
+      <c r="PV8" t="n">
         <v>222</v>
       </c>
-      <c r="PV8" t="n">
+      <c r="PW8" t="n">
         <v>12</v>
       </c>
-      <c r="PW8" t="n">
+      <c r="PX8" t="n">
         <v>99</v>
       </c>
-      <c r="PX8" t="n">
+      <c r="PY8" t="n">
         <v>119</v>
       </c>
-      <c r="PY8" t="n">
+      <c r="PZ8" t="n">
         <v>64</v>
       </c>
-      <c r="PZ8" t="n">
+      <c r="QA8" t="n">
+        <v>0.636363636363636</v>
+      </c>
+      <c r="QB8" t="n">
         <v>0.424242424242424</v>
       </c>
-      <c r="QA8" t="n">
+      <c r="QC8" t="n">
         <v>0.212121212121212</v>
       </c>
-      <c r="QB8" t="n">
+      <c r="QD8" t="n">
         <v>740</v>
       </c>
-      <c r="QC8" t="n">
+      <c r="QE8" t="n">
         <v>107</v>
       </c>
-      <c r="QD8" t="n">
+      <c r="QF8" t="n">
         <v>219</v>
       </c>
-      <c r="QE8" t="n">
+      <c r="QG8" t="n">
         <v>10</v>
       </c>
-      <c r="QF8" t="n">
+      <c r="QH8" t="n">
         <v>97</v>
       </c>
-      <c r="QG8" t="n">
+      <c r="QI8" t="n">
         <v>118</v>
       </c>
-      <c r="QH8" t="n">
+      <c r="QJ8" t="n">
         <v>63</v>
       </c>
-      <c r="QI8" t="n">
+      <c r="QK8" t="n">
         <v>0.636363636363636</v>
       </c>
-      <c r="QJ8" t="n">
+      <c r="QL8" t="n">
         <v>0.443298969072165</v>
       </c>
-      <c r="QK8" t="n">
+      <c r="QM8" t="n">
         <v>0.195876288659794</v>
       </c>
-      <c r="QL8" t="n">
+      <c r="QN8" t="n">
         <v>42</v>
       </c>
-      <c r="QM8" t="n">
+      <c r="QO8" t="n">
         <v>4</v>
       </c>
-      <c r="QN8" t="n">
+      <c r="QP8" t="n">
         <v>3</v>
       </c>
-      <c r="QO8" t="n">
+      <c r="QQ8" t="n">
         <v>2</v>
       </c>
-      <c r="QP8" t="n">
+      <c r="QR8" t="n">
         <v>2</v>
       </c>
-      <c r="QQ8" t="n">
+      <c r="QS8" t="n">
         <v>1</v>
       </c>
-      <c r="QR8" t="n">
+      <c r="QT8" t="n">
         <v>1</v>
       </c>
-      <c r="QS8" t="n">
+      <c r="QU8" t="n">
         <v>0.371212121212121</v>
       </c>
-      <c r="QT8" t="n">
+      <c r="QV8" t="n">
         <v>0.628787878787879</v>
       </c>
-      <c r="QU8" t="n">
+      <c r="QW8" t="n">
         <v>0.381443298969072</v>
       </c>
-      <c r="QV8" t="n">
+      <c r="QX8" t="n">
         <v>0.618556701030928</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B9" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C9" t="n">
         <v>2282</v>
@@ -11266,7 +11308,7 @@
       <c r="FR9"/>
       <c r="FS9"/>
       <c r="FT9" t="n">
-        <v>0.77283105022831</v>
+        <v>0.772831050228311</v>
       </c>
       <c r="FU9" t="n">
         <v>0.227168949771689</v>
@@ -11932,171 +11974,177 @@
         <v>72</v>
       </c>
       <c r="OV9" t="n">
+        <v>0.617647058823529</v>
+      </c>
+      <c r="OW9" t="n">
         <v>0.428571428571429</v>
       </c>
-      <c r="OW9" t="n">
+      <c r="OX9" t="n">
         <v>0.183673469387755</v>
       </c>
-      <c r="OX9" t="n">
+      <c r="OY9" t="n">
         <v>1511</v>
       </c>
-      <c r="OY9" t="n">
+      <c r="OZ9" t="n">
         <v>88</v>
       </c>
-      <c r="OZ9" t="n">
+      <c r="PA9" t="n">
         <v>172</v>
       </c>
-      <c r="PA9" t="n">
+      <c r="PB9" t="n">
         <v>6</v>
       </c>
-      <c r="PB9" t="n">
+      <c r="PC9" t="n">
         <v>82</v>
       </c>
-      <c r="PC9" t="n">
+      <c r="PD9" t="n">
         <v>83</v>
       </c>
-      <c r="PD9" t="n">
+      <c r="PE9" t="n">
         <v>58</v>
       </c>
-      <c r="PE9" t="n">
-        <v>0.61764705882353</v>
-      </c>
       <c r="PF9" t="n">
+        <v>0.617647058823529</v>
+      </c>
+      <c r="PG9" t="n">
         <v>0.397435897435897</v>
       </c>
-      <c r="PG9" t="n">
+      <c r="PH9" t="n">
         <v>0.192307692307692</v>
       </c>
-      <c r="PH9" t="n">
+      <c r="PI9" t="n">
         <v>225</v>
       </c>
-      <c r="PI9" t="n">
+      <c r="PJ9" t="n">
         <v>21</v>
       </c>
-      <c r="PJ9" t="n">
+      <c r="PK9" t="n">
         <v>44</v>
       </c>
-      <c r="PK9" t="n">
+      <c r="PL9" t="n">
         <v>1</v>
-      </c>
-      <c r="PL9" t="n">
-        <v>20</v>
       </c>
       <c r="PM9" t="n">
         <v>20</v>
       </c>
       <c r="PN9" t="n">
+        <v>20</v>
+      </c>
+      <c r="PO9" t="n">
         <v>14</v>
       </c>
-      <c r="PO9" t="n">
+      <c r="PP9" t="n">
         <v>0.36734693877551</v>
       </c>
-      <c r="PP9" t="n">
+      <c r="PQ9" t="n">
         <v>0.63265306122449</v>
       </c>
-      <c r="PQ9" t="n">
+      <c r="PR9" t="n">
         <v>0.346153846153846</v>
       </c>
-      <c r="PR9" t="n">
+      <c r="PS9" t="n">
         <v>0.653846153846154</v>
       </c>
-      <c r="PS9" t="n">
+      <c r="PT9" t="n">
         <v>1001</v>
       </c>
-      <c r="PT9" t="n">
+      <c r="PU9" t="n">
         <v>96</v>
       </c>
-      <c r="PU9" t="n">
+      <c r="PV9" t="n">
         <v>220</v>
       </c>
-      <c r="PV9" t="n">
+      <c r="PW9" t="n">
         <v>5</v>
       </c>
-      <c r="PW9" t="n">
+      <c r="PX9" t="n">
         <v>91</v>
       </c>
-      <c r="PX9" t="n">
+      <c r="PY9" t="n">
         <v>122</v>
       </c>
-      <c r="PY9" t="n">
+      <c r="PZ9" t="n">
         <v>69</v>
       </c>
-      <c r="PZ9" t="n">
+      <c r="QA9" t="n">
+        <v>0.67032967032967</v>
+      </c>
+      <c r="QB9" t="n">
         <v>0.428571428571429</v>
       </c>
-      <c r="QA9" t="n">
+      <c r="QC9" t="n">
         <v>0.241758241758242</v>
       </c>
-      <c r="QB9" t="n">
+      <c r="QD9" t="n">
         <v>953</v>
       </c>
-      <c r="QC9" t="n">
+      <c r="QE9" t="n">
         <v>79</v>
       </c>
-      <c r="QD9" t="n">
+      <c r="QF9" t="n">
         <v>171</v>
       </c>
-      <c r="QE9" t="n">
+      <c r="QG9" t="n">
         <v>4</v>
       </c>
-      <c r="QF9" t="n">
+      <c r="QH9" t="n">
         <v>75</v>
       </c>
-      <c r="QG9" t="n">
+      <c r="QI9" t="n">
         <v>89</v>
       </c>
-      <c r="QH9" t="n">
+      <c r="QJ9" t="n">
         <v>55</v>
       </c>
-      <c r="QI9" t="n">
+      <c r="QK9" t="n">
         <v>0.67032967032967</v>
       </c>
-      <c r="QJ9" t="n">
+      <c r="QL9" t="n">
         <v>0.373333333333333</v>
       </c>
-      <c r="QK9" t="n">
+      <c r="QM9" t="n">
         <v>0.253333333333333</v>
       </c>
-      <c r="QL9" t="n">
+      <c r="QN9" t="n">
         <v>48</v>
       </c>
-      <c r="QM9" t="n">
+      <c r="QO9" t="n">
         <v>17</v>
       </c>
-      <c r="QN9" t="n">
+      <c r="QP9" t="n">
         <v>49</v>
       </c>
-      <c r="QO9" t="n">
+      <c r="QQ9" t="n">
         <v>1</v>
       </c>
-      <c r="QP9" t="n">
+      <c r="QR9" t="n">
         <v>16</v>
       </c>
-      <c r="QQ9" t="n">
+      <c r="QS9" t="n">
         <v>33</v>
       </c>
-      <c r="QR9" t="n">
+      <c r="QT9" t="n">
         <v>14</v>
       </c>
-      <c r="QS9" t="n">
+      <c r="QU9" t="n">
         <v>0.381868131868132</v>
       </c>
-      <c r="QT9" t="n">
+      <c r="QV9" t="n">
         <v>0.618131868131868</v>
       </c>
-      <c r="QU9" t="n">
+      <c r="QW9" t="n">
         <v>0.343333333333333</v>
       </c>
-      <c r="QV9" t="n">
+      <c r="QX9" t="n">
         <v>0.656666666666667</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B10" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C10" t="n">
         <v>1838</v>
@@ -13270,171 +13318,177 @@
         <v>73</v>
       </c>
       <c r="OV10" t="n">
+        <v>0.741935483870968</v>
+      </c>
+      <c r="OW10" t="n">
         <v>0.48695652173913</v>
       </c>
-      <c r="OW10" t="n">
+      <c r="OX10" t="n">
         <v>0.243478260869565</v>
       </c>
-      <c r="OX10" t="n">
+      <c r="OY10" t="n">
         <v>1108</v>
       </c>
-      <c r="OY10" t="n">
+      <c r="OZ10" t="n">
         <v>113</v>
       </c>
-      <c r="OZ10" t="n">
+      <c r="PA10" t="n">
         <v>212</v>
       </c>
-      <c r="PA10" t="n">
+      <c r="PB10" t="n">
         <v>16</v>
       </c>
-      <c r="PB10" t="n">
+      <c r="PC10" t="n">
         <v>97</v>
       </c>
-      <c r="PC10" t="n">
+      <c r="PD10" t="n">
         <v>111</v>
       </c>
-      <c r="PD10" t="n">
+      <c r="PE10" t="n">
         <v>62</v>
       </c>
-      <c r="PE10" t="n">
+      <c r="PF10" t="n">
         <v>0.741935483870968</v>
       </c>
-      <c r="PF10" t="n">
+      <c r="PG10" t="n">
         <v>0.511363636363636</v>
       </c>
-      <c r="PG10" t="n">
+      <c r="PH10" t="n">
         <v>0.227272727272727</v>
       </c>
-      <c r="PH10" t="n">
+      <c r="PI10" t="n">
         <v>0</v>
       </c>
-      <c r="PI10" t="n">
+      <c r="PJ10" t="n">
         <v>42</v>
       </c>
-      <c r="PJ10" t="n">
+      <c r="PK10" t="n">
         <v>48</v>
       </c>
-      <c r="PK10" t="n">
+      <c r="PL10" t="n">
         <v>15</v>
       </c>
-      <c r="PL10" t="n">
+      <c r="PM10" t="n">
         <v>27</v>
       </c>
-      <c r="PM10" t="n">
+      <c r="PN10" t="n">
         <v>21</v>
       </c>
-      <c r="PN10" t="n">
+      <c r="PO10" t="n">
         <v>11</v>
       </c>
-      <c r="PO10" t="n">
+      <c r="PP10" t="n">
         <v>0.426086956521739</v>
       </c>
-      <c r="PP10" t="n">
+      <c r="PQ10" t="n">
         <v>0.573913043478261</v>
       </c>
-      <c r="PQ10" t="n">
+      <c r="PR10" t="n">
         <v>0.440340909090909</v>
       </c>
-      <c r="PR10" t="n">
+      <c r="PS10" t="n">
         <v>0.559659090909091</v>
       </c>
-      <c r="PS10" t="n">
+      <c r="PT10" t="n">
         <v>1162</v>
       </c>
-      <c r="PT10" t="n">
+      <c r="PU10" t="n">
         <v>122</v>
       </c>
-      <c r="PU10" t="n">
+      <c r="PV10" t="n">
         <v>307</v>
       </c>
-      <c r="PV10" t="n">
+      <c r="PW10" t="n">
         <v>7</v>
       </c>
-      <c r="PW10" t="n">
+      <c r="PX10" t="n">
         <v>115</v>
       </c>
-      <c r="PX10" t="n">
+      <c r="PY10" t="n">
         <v>185</v>
       </c>
-      <c r="PY10" t="n">
+      <c r="PZ10" t="n">
         <v>81</v>
       </c>
-      <c r="PZ10" t="n">
+      <c r="QA10" t="n">
+        <v>0.678260869565217</v>
+      </c>
+      <c r="QB10" t="n">
         <v>0.469565217391304</v>
       </c>
-      <c r="QA10" t="n">
+      <c r="QC10" t="n">
         <v>0.208695652173913</v>
       </c>
-      <c r="QB10" t="n">
+      <c r="QD10" t="n">
         <v>1014</v>
       </c>
-      <c r="QC10" t="n">
+      <c r="QE10" t="n">
         <v>99</v>
       </c>
-      <c r="QD10" t="n">
+      <c r="QF10" t="n">
         <v>251</v>
       </c>
-      <c r="QE10" t="n">
+      <c r="QG10" t="n">
         <v>4</v>
       </c>
-      <c r="QF10" t="n">
+      <c r="QH10" t="n">
         <v>95</v>
       </c>
-      <c r="QG10" t="n">
+      <c r="QI10" t="n">
         <v>150</v>
       </c>
-      <c r="QH10" t="n">
+      <c r="QJ10" t="n">
         <v>65</v>
       </c>
-      <c r="QI10" t="n">
+      <c r="QK10" t="n">
         <v>0.678260869565217</v>
       </c>
-      <c r="QJ10" t="n">
+      <c r="QL10" t="n">
         <v>0.442105263157895</v>
       </c>
-      <c r="QK10" t="n">
+      <c r="QM10" t="n">
         <v>0.210526315789474</v>
       </c>
-      <c r="QL10" t="n">
+      <c r="QN10" t="n">
         <v>148</v>
       </c>
-      <c r="QM10" t="n">
+      <c r="QO10" t="n">
         <v>23</v>
       </c>
-      <c r="QN10" t="n">
+      <c r="QP10" t="n">
         <v>56</v>
       </c>
-      <c r="QO10" t="n">
+      <c r="QQ10" t="n">
         <v>3</v>
       </c>
-      <c r="QP10" t="n">
+      <c r="QR10" t="n">
         <v>20</v>
       </c>
-      <c r="QQ10" t="n">
+      <c r="QS10" t="n">
         <v>35</v>
       </c>
-      <c r="QR10" t="n">
+      <c r="QT10" t="n">
         <v>16</v>
       </c>
-      <c r="QS10" t="n">
+      <c r="QU10" t="n">
         <v>0.404347826086957</v>
       </c>
-      <c r="QT10" t="n">
+      <c r="QV10" t="n">
         <v>0.595652173913043</v>
       </c>
-      <c r="QU10" t="n">
+      <c r="QW10" t="n">
         <v>0.384210526315789</v>
       </c>
-      <c r="QV10" t="n">
-        <v>0.61578947368421</v>
+      <c r="QX10" t="n">
+        <v>0.615789473684211</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B11" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C11" t="n">
         <v>2550</v>
@@ -13797,7 +13851,7 @@
         <v>116</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.71578947368421</v>
+        <v>0.715789473684211</v>
       </c>
       <c r="DT11" t="n">
         <v>495</v>
@@ -14608,171 +14662,177 @@
         <v>92</v>
       </c>
       <c r="OV11" t="n">
+        <v>0.632478632478632</v>
+      </c>
+      <c r="OW11" t="n">
         <v>0.439252336448598</v>
       </c>
-      <c r="OW11" t="n">
+      <c r="OX11" t="n">
         <v>0.177570093457944</v>
       </c>
-      <c r="OX11" t="n">
+      <c r="OY11" t="n">
         <v>2097</v>
       </c>
-      <c r="OY11" t="n">
+      <c r="OZ11" t="n">
         <v>123</v>
       </c>
-      <c r="OZ11" t="n">
+      <c r="PA11" t="n">
         <v>305</v>
       </c>
-      <c r="PA11" t="n">
+      <c r="PB11" t="n">
         <v>14</v>
       </c>
-      <c r="PB11" t="n">
+      <c r="PC11" t="n">
         <v>109</v>
       </c>
-      <c r="PC11" t="n">
+      <c r="PD11" t="n">
         <v>161</v>
       </c>
-      <c r="PD11" t="n">
+      <c r="PE11" t="n">
         <v>86</v>
       </c>
-      <c r="PE11" t="n">
+      <c r="PF11" t="n">
         <v>0.632478632478632</v>
       </c>
-      <c r="PF11" t="n">
+      <c r="PG11" t="n">
         <v>0.434343434343434</v>
       </c>
-      <c r="PG11" t="n">
+      <c r="PH11" t="n">
         <v>0.181818181818182</v>
       </c>
-      <c r="PH11" t="n">
+      <c r="PI11" t="n">
         <v>103</v>
       </c>
-      <c r="PI11" t="n">
+      <c r="PJ11" t="n">
         <v>9</v>
       </c>
-      <c r="PJ11" t="n">
+      <c r="PK11" t="n">
         <v>23</v>
       </c>
-      <c r="PK11" t="n">
+      <c r="PL11" t="n">
         <v>1</v>
       </c>
-      <c r="PL11" t="n">
+      <c r="PM11" t="n">
         <v>8</v>
       </c>
-      <c r="PM11" t="n">
+      <c r="PN11" t="n">
         <v>14</v>
       </c>
-      <c r="PN11" t="n">
+      <c r="PO11" t="n">
         <v>6</v>
       </c>
-      <c r="PO11" t="n">
+      <c r="PP11" t="n">
         <v>0.373831775700935</v>
       </c>
-      <c r="PP11" t="n">
+      <c r="PQ11" t="n">
         <v>0.626168224299065</v>
       </c>
-      <c r="PQ11" t="n">
+      <c r="PR11" t="n">
         <v>0.371212121212121</v>
       </c>
-      <c r="PR11" t="n">
+      <c r="PS11" t="n">
         <v>0.628787878787879</v>
       </c>
-      <c r="PS11" t="n">
+      <c r="PT11" t="n">
         <v>173</v>
       </c>
-      <c r="PT11" t="n">
+      <c r="PU11" t="n">
         <v>117</v>
       </c>
-      <c r="PU11" t="n">
+      <c r="PV11" t="n">
         <v>219</v>
       </c>
-      <c r="PV11" t="n">
+      <c r="PW11" t="n">
         <v>18</v>
       </c>
-      <c r="PW11" t="n">
+      <c r="PX11" t="n">
         <v>99</v>
       </c>
-      <c r="PX11" t="n">
+      <c r="PY11" t="n">
         <v>117</v>
       </c>
-      <c r="PY11" t="n">
+      <c r="PZ11" t="n">
         <v>70</v>
       </c>
-      <c r="PZ11" t="n">
+      <c r="QA11" t="n">
+        <v>0.626262626262626</v>
+      </c>
+      <c r="QB11" t="n">
         <v>0.424242424242424</v>
       </c>
-      <c r="QA11" t="n">
+      <c r="QC11" t="n">
         <v>0.202020202020202</v>
       </c>
-      <c r="QB11" t="n">
+      <c r="QD11" t="n">
         <v>173</v>
       </c>
-      <c r="QC11" t="n">
+      <c r="QE11" t="n">
         <v>114</v>
       </c>
-      <c r="QD11" t="n">
+      <c r="QF11" t="n">
         <v>212</v>
       </c>
-      <c r="QE11" t="n">
+      <c r="QG11" t="n">
         <v>18</v>
       </c>
-      <c r="QF11" t="n">
+      <c r="QH11" t="n">
         <v>96</v>
       </c>
-      <c r="QG11" t="n">
+      <c r="QI11" t="n">
         <v>113</v>
       </c>
-      <c r="QH11" t="n">
+      <c r="QJ11" t="n">
         <v>67</v>
       </c>
-      <c r="QI11" t="n">
+      <c r="QK11" t="n">
         <v>0.626262626262626</v>
       </c>
-      <c r="QJ11" t="n">
+      <c r="QL11" t="n">
         <v>0.239583333333333</v>
       </c>
-      <c r="QK11" t="n">
+      <c r="QM11" t="n">
         <v>0.375</v>
       </c>
-      <c r="QL11" t="n">
+      <c r="QN11" t="n">
         <v>0</v>
       </c>
-      <c r="QM11" t="n">
+      <c r="QO11" t="n">
         <v>3</v>
       </c>
-      <c r="QN11" t="n">
+      <c r="QP11" t="n">
         <v>7</v>
       </c>
-      <c r="QO11" t="n">
+      <c r="QQ11" t="n">
         <v>0</v>
-      </c>
-      <c r="QP11" t="n">
-        <v>3</v>
-      </c>
-      <c r="QQ11" t="n">
-        <v>4</v>
       </c>
       <c r="QR11" t="n">
         <v>3</v>
       </c>
       <c r="QS11" t="n">
+        <v>4</v>
+      </c>
+      <c r="QT11" t="n">
+        <v>3</v>
+      </c>
+      <c r="QU11" t="n">
         <v>0.368686868686869</v>
       </c>
-      <c r="QT11" t="n">
+      <c r="QV11" t="n">
         <v>0.631313131313131</v>
       </c>
-      <c r="QU11" t="n">
+      <c r="QW11" t="n">
         <v>0.2734375</v>
       </c>
-      <c r="QV11" t="n">
+      <c r="QX11" t="n">
         <v>0.7265625</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B12" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C12" t="n">
         <v>2508</v>
@@ -15946,171 +16006,177 @@
         <v>71</v>
       </c>
       <c r="OV12" t="n">
+        <v>0.716981132075472</v>
+      </c>
+      <c r="OW12" t="n">
         <v>0.49</v>
       </c>
-      <c r="OW12" t="n">
+      <c r="OX12" t="n">
         <v>0.22</v>
       </c>
-      <c r="OX12" t="n">
+      <c r="OY12" t="n">
         <v>1130</v>
       </c>
-      <c r="OY12" t="n">
+      <c r="OZ12" t="n">
         <v>87</v>
       </c>
-      <c r="OZ12" t="n">
+      <c r="PA12" t="n">
         <v>201</v>
       </c>
-      <c r="PA12" t="n">
+      <c r="PB12" t="n">
         <v>4</v>
       </c>
-      <c r="PB12" t="n">
+      <c r="PC12" t="n">
         <v>83</v>
       </c>
-      <c r="PC12" t="n">
+      <c r="PD12" t="n">
         <v>113</v>
       </c>
-      <c r="PD12" t="n">
+      <c r="PE12" t="n">
         <v>57</v>
       </c>
-      <c r="PE12" t="n">
+      <c r="PF12" t="n">
         <v>0.716981132075472</v>
       </c>
-      <c r="PF12" t="n">
-        <v>0.48051948051948</v>
-      </c>
       <c r="PG12" t="n">
+        <v>0.480519480519481</v>
+      </c>
+      <c r="PH12" t="n">
         <v>0.168831168831169</v>
       </c>
-      <c r="PH12" t="n">
+      <c r="PI12" t="n">
         <v>96</v>
       </c>
-      <c r="PI12" t="n">
+      <c r="PJ12" t="n">
         <v>28</v>
       </c>
-      <c r="PJ12" t="n">
+      <c r="PK12" t="n">
         <v>60</v>
       </c>
-      <c r="PK12" t="n">
+      <c r="PL12" t="n">
         <v>5</v>
       </c>
-      <c r="PL12" t="n">
+      <c r="PM12" t="n">
         <v>23</v>
       </c>
-      <c r="PM12" t="n">
+      <c r="PN12" t="n">
         <v>36</v>
       </c>
-      <c r="PN12" t="n">
+      <c r="PO12" t="n">
         <v>14</v>
       </c>
-      <c r="PO12" t="n">
+      <c r="PP12" t="n">
         <v>0.4225</v>
       </c>
-      <c r="PP12" t="n">
+      <c r="PQ12" t="n">
         <v>0.5775</v>
       </c>
-      <c r="PQ12" t="n">
+      <c r="PR12" t="n">
         <v>0.402597402597403</v>
       </c>
-      <c r="PR12" t="n">
+      <c r="PS12" t="n">
         <v>0.597402597402597</v>
       </c>
-      <c r="PS12" t="n">
+      <c r="PT12" t="n">
         <v>1096</v>
       </c>
-      <c r="PT12" t="n">
+      <c r="PU12" t="n">
         <v>124</v>
       </c>
-      <c r="PU12" t="n">
+      <c r="PV12" t="n">
         <v>303</v>
       </c>
-      <c r="PV12" t="n">
+      <c r="PW12" t="n">
         <v>21</v>
       </c>
-      <c r="PW12" t="n">
+      <c r="PX12" t="n">
         <v>103</v>
       </c>
-      <c r="PX12" t="n">
+      <c r="PY12" t="n">
         <v>197</v>
       </c>
-      <c r="PY12" t="n">
+      <c r="PZ12" t="n">
         <v>74</v>
       </c>
-      <c r="PZ12" t="n">
+      <c r="QA12" t="n">
+        <v>0.747572815533981</v>
+      </c>
+      <c r="QB12" t="n">
         <v>0.524271844660194</v>
       </c>
-      <c r="QA12" t="n">
+      <c r="QC12" t="n">
         <v>0.223300970873786</v>
       </c>
-      <c r="QB12" t="n">
+      <c r="QD12" t="n">
         <v>1096</v>
       </c>
-      <c r="QC12" t="n">
+      <c r="QE12" t="n">
         <v>114</v>
       </c>
-      <c r="QD12" t="n">
+      <c r="QF12" t="n">
         <v>279</v>
       </c>
-      <c r="QE12" t="n">
+      <c r="QG12" t="n">
         <v>19</v>
       </c>
-      <c r="QF12" t="n">
+      <c r="QH12" t="n">
         <v>95</v>
       </c>
-      <c r="QG12" t="n">
+      <c r="QI12" t="n">
         <v>181</v>
       </c>
-      <c r="QH12" t="n">
+      <c r="QJ12" t="n">
         <v>67</v>
       </c>
-      <c r="QI12" t="n">
+      <c r="QK12" t="n">
         <v>0.747572815533981</v>
       </c>
-      <c r="QJ12" t="n">
+      <c r="QL12" t="n">
         <v>0.515789473684211</v>
       </c>
-      <c r="QK12" t="n">
+      <c r="QM12" t="n">
         <v>0.210526315789474</v>
       </c>
-      <c r="QL12" t="n">
+      <c r="QN12" t="n">
         <v>0</v>
       </c>
-      <c r="QM12" t="n">
+      <c r="QO12" t="n">
         <v>10</v>
       </c>
-      <c r="QN12" t="n">
+      <c r="QP12" t="n">
         <v>24</v>
       </c>
-      <c r="QO12" t="n">
+      <c r="QQ12" t="n">
         <v>2</v>
       </c>
-      <c r="QP12" t="n">
+      <c r="QR12" t="n">
         <v>8</v>
       </c>
-      <c r="QQ12" t="n">
+      <c r="QS12" t="n">
         <v>16</v>
       </c>
-      <c r="QR12" t="n">
+      <c r="QT12" t="n">
         <v>7</v>
       </c>
-      <c r="QS12" t="n">
+      <c r="QU12" t="n">
         <v>0.449029126213592</v>
       </c>
-      <c r="QT12" t="n">
+      <c r="QV12" t="n">
         <v>0.550970873786408</v>
       </c>
-      <c r="QU12" t="n">
+      <c r="QW12" t="n">
         <v>0.439473684210526</v>
       </c>
-      <c r="QV12" t="n">
+      <c r="QX12" t="n">
         <v>0.560526315789474</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B13" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C13" t="n">
         <v>2400</v>
@@ -17284,171 +17350,177 @@
         <v>114</v>
       </c>
       <c r="OV13" t="n">
+        <v>0.754838709677419</v>
+      </c>
+      <c r="OW13" t="n">
         <v>0.507246376811594</v>
       </c>
-      <c r="OW13" t="n">
+      <c r="OX13" t="n">
         <v>0.22463768115942</v>
       </c>
-      <c r="OX13" t="n">
+      <c r="OY13" t="n">
         <v>1507</v>
       </c>
-      <c r="OY13" t="n">
+      <c r="OZ13" t="n">
         <v>136</v>
       </c>
-      <c r="OZ13" t="n">
+      <c r="PA13" t="n">
         <v>430</v>
       </c>
-      <c r="PA13" t="n">
+      <c r="PB13" t="n">
         <v>3</v>
       </c>
-      <c r="PB13" t="n">
+      <c r="PC13" t="n">
         <v>133</v>
       </c>
-      <c r="PC13" t="n">
+      <c r="PD13" t="n">
         <v>288</v>
       </c>
-      <c r="PD13" t="n">
+      <c r="PE13" t="n">
         <v>98</v>
       </c>
-      <c r="PE13" t="n">
+      <c r="PF13" t="n">
         <v>0.754838709677419</v>
       </c>
-      <c r="PF13" t="n">
+      <c r="PG13" t="n">
         <v>0.517241379310345</v>
       </c>
-      <c r="PG13" t="n">
+      <c r="PH13" t="n">
         <v>0.224137931034483</v>
       </c>
-      <c r="PH13" t="n">
+      <c r="PI13" t="n">
         <v>287</v>
       </c>
-      <c r="PI13" t="n">
+      <c r="PJ13" t="n">
         <v>23</v>
       </c>
-      <c r="PJ13" t="n">
+      <c r="PK13" t="n">
         <v>62</v>
       </c>
-      <c r="PK13" t="n">
+      <c r="PL13" t="n">
         <v>1</v>
       </c>
-      <c r="PL13" t="n">
+      <c r="PM13" t="n">
         <v>22</v>
       </c>
-      <c r="PM13" t="n">
+      <c r="PN13" t="n">
         <v>38</v>
       </c>
-      <c r="PN13" t="n">
+      <c r="PO13" t="n">
         <v>16</v>
       </c>
-      <c r="PO13" t="n">
+      <c r="PP13" t="n">
         <v>0.436594202898551</v>
       </c>
-      <c r="PP13" t="n">
+      <c r="PQ13" t="n">
         <v>0.563405797101449</v>
       </c>
-      <c r="PQ13" t="n">
+      <c r="PR13" t="n">
         <v>0.443965517241379</v>
       </c>
-      <c r="PR13" t="n">
+      <c r="PS13" t="n">
         <v>0.556034482758621</v>
       </c>
-      <c r="PS13" t="n">
+      <c r="PT13" t="n">
         <v>1543</v>
       </c>
-      <c r="PT13" t="n">
+      <c r="PU13" t="n">
         <v>121</v>
       </c>
-      <c r="PU13" t="n">
+      <c r="PV13" t="n">
         <v>354</v>
       </c>
-      <c r="PV13" t="n">
+      <c r="PW13" t="n">
         <v>6</v>
       </c>
-      <c r="PW13" t="n">
+      <c r="PX13" t="n">
         <v>115</v>
       </c>
-      <c r="PX13" t="n">
+      <c r="PY13" t="n">
         <v>227</v>
       </c>
-      <c r="PY13" t="n">
+      <c r="PZ13" t="n">
         <v>87</v>
       </c>
-      <c r="PZ13" t="n">
+      <c r="QA13" t="n">
+        <v>0.678260869565217</v>
+      </c>
+      <c r="QB13" t="n">
         <v>0.478260869565217</v>
       </c>
-      <c r="QA13" t="n">
+      <c r="QC13" t="n">
         <v>0.2</v>
       </c>
-      <c r="QB13" t="n">
+      <c r="QD13" t="n">
         <v>1402</v>
       </c>
-      <c r="QC13" t="n">
+      <c r="QE13" t="n">
         <v>111</v>
       </c>
-      <c r="QD13" t="n">
+      <c r="QF13" t="n">
         <v>323</v>
       </c>
-      <c r="QE13" t="n">
+      <c r="QG13" t="n">
         <v>5</v>
       </c>
-      <c r="QF13" t="n">
+      <c r="QH13" t="n">
         <v>106</v>
       </c>
-      <c r="QG13" t="n">
+      <c r="QI13" t="n">
         <v>207</v>
       </c>
-      <c r="QH13" t="n">
+      <c r="QJ13" t="n">
         <v>79</v>
       </c>
-      <c r="QI13" t="n">
+      <c r="QK13" t="n">
         <v>0.678260869565217</v>
       </c>
-      <c r="QJ13" t="n">
+      <c r="QL13" t="n">
         <v>0.481132075471698</v>
       </c>
-      <c r="QK13" t="n">
+      <c r="QM13" t="n">
         <v>0.19811320754717</v>
       </c>
-      <c r="QL13" t="n">
+      <c r="QN13" t="n">
         <v>141</v>
       </c>
-      <c r="QM13" t="n">
+      <c r="QO13" t="n">
         <v>10</v>
       </c>
-      <c r="QN13" t="n">
+      <c r="QP13" t="n">
         <v>31</v>
       </c>
-      <c r="QO13" t="n">
+      <c r="QQ13" t="n">
         <v>1</v>
       </c>
-      <c r="QP13" t="n">
+      <c r="QR13" t="n">
         <v>9</v>
       </c>
-      <c r="QQ13" t="n">
+      <c r="QS13" t="n">
         <v>20</v>
       </c>
-      <c r="QR13" t="n">
+      <c r="QT13" t="n">
         <v>8</v>
       </c>
-      <c r="QS13" t="n">
+      <c r="QU13" t="n">
         <v>0.408695652173913</v>
       </c>
-      <c r="QT13" t="n">
+      <c r="QV13" t="n">
         <v>0.591304347826087</v>
       </c>
-      <c r="QU13" t="n">
+      <c r="QW13" t="n">
         <v>0.410377358490566</v>
       </c>
-      <c r="QV13" t="n">
+      <c r="QX13" t="n">
         <v>0.589622641509434</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B14" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C14" t="n">
         <v>3044</v>
@@ -18622,171 +18694,177 @@
         <v>69</v>
       </c>
       <c r="OV14" t="n">
+        <v>0.640776699029126</v>
+      </c>
+      <c r="OW14" t="n">
         <v>0.408163265306122</v>
       </c>
-      <c r="OW14" t="n">
+      <c r="OX14" t="n">
         <v>0.224489795918367</v>
       </c>
-      <c r="OX14" t="n">
+      <c r="OY14" t="n">
         <v>1286</v>
       </c>
-      <c r="OY14" t="n">
+      <c r="OZ14" t="n">
         <v>96</v>
       </c>
-      <c r="OZ14" t="n">
+      <c r="PA14" t="n">
         <v>192</v>
       </c>
-      <c r="PA14" t="n">
+      <c r="PB14" t="n">
         <v>5</v>
       </c>
-      <c r="PB14" t="n">
+      <c r="PC14" t="n">
         <v>91</v>
       </c>
-      <c r="PC14" t="n">
+      <c r="PD14" t="n">
         <v>97</v>
       </c>
-      <c r="PD14" t="n">
+      <c r="PE14" t="n">
         <v>58</v>
       </c>
-      <c r="PE14" t="n">
+      <c r="PF14" t="n">
         <v>0.640776699029126</v>
       </c>
-      <c r="PF14" t="n">
+      <c r="PG14" t="n">
         <v>0.406976744186047</v>
       </c>
-      <c r="PG14" t="n">
+      <c r="PH14" t="n">
         <v>0.22093023255814</v>
       </c>
-      <c r="PH14" t="n">
+      <c r="PI14" t="n">
         <v>45</v>
       </c>
-      <c r="PI14" t="n">
+      <c r="PJ14" t="n">
         <v>13</v>
       </c>
-      <c r="PJ14" t="n">
+      <c r="PK14" t="n">
         <v>36</v>
       </c>
-      <c r="PK14" t="n">
+      <c r="PL14" t="n">
         <v>1</v>
       </c>
-      <c r="PL14" t="n">
+      <c r="PM14" t="n">
         <v>12</v>
       </c>
-      <c r="PM14" t="n">
+      <c r="PN14" t="n">
         <v>24</v>
       </c>
-      <c r="PN14" t="n">
+      <c r="PO14" t="n">
         <v>11</v>
       </c>
-      <c r="PO14" t="n">
+      <c r="PP14" t="n">
         <v>0.362244897959184</v>
       </c>
-      <c r="PP14" t="n">
+      <c r="PQ14" t="n">
         <v>0.637755102040816</v>
       </c>
-      <c r="PQ14" t="n">
+      <c r="PR14" t="n">
         <v>0.36046511627907</v>
       </c>
-      <c r="PR14" t="n">
+      <c r="PS14" t="n">
         <v>0.63953488372093</v>
       </c>
-      <c r="PS14" t="n">
+      <c r="PT14" t="n">
         <v>878</v>
       </c>
-      <c r="PT14" t="n">
+      <c r="PU14" t="n">
         <v>103</v>
       </c>
-      <c r="PU14" t="n">
+      <c r="PV14" t="n">
         <v>220</v>
       </c>
-      <c r="PV14" t="n">
+      <c r="PW14" t="n">
         <v>5</v>
       </c>
-      <c r="PW14" t="n">
+      <c r="PX14" t="n">
         <v>98</v>
       </c>
-      <c r="PX14" t="n">
+      <c r="PY14" t="n">
         <v>117</v>
       </c>
-      <c r="PY14" t="n">
+      <c r="PZ14" t="n">
         <v>71</v>
       </c>
-      <c r="PZ14" t="n">
+      <c r="QA14" t="n">
+        <v>0.663265306122449</v>
+      </c>
+      <c r="QB14" t="n">
         <v>0.448979591836735</v>
       </c>
-      <c r="QA14" t="n">
+      <c r="QC14" t="n">
         <v>0.214285714285714</v>
       </c>
-      <c r="QB14" t="n">
+      <c r="QD14" t="n">
         <v>822</v>
       </c>
-      <c r="QC14" t="n">
+      <c r="QE14" t="n">
         <v>96</v>
       </c>
-      <c r="QD14" t="n">
+      <c r="QF14" t="n">
         <v>206</v>
       </c>
-      <c r="QE14" t="n">
+      <c r="QG14" t="n">
         <v>4</v>
       </c>
-      <c r="QF14" t="n">
+      <c r="QH14" t="n">
         <v>92</v>
       </c>
-      <c r="QG14" t="n">
+      <c r="QI14" t="n">
         <v>109</v>
       </c>
-      <c r="QH14" t="n">
+      <c r="QJ14" t="n">
         <v>68</v>
       </c>
-      <c r="QI14" t="n">
+      <c r="QK14" t="n">
         <v>0.663265306122449</v>
       </c>
-      <c r="QJ14" t="n">
+      <c r="QL14" t="n">
         <v>0.445652173913043</v>
       </c>
-      <c r="QK14" t="n">
+      <c r="QM14" t="n">
         <v>0.217391304347826</v>
       </c>
-      <c r="QL14" t="n">
+      <c r="QN14" t="n">
         <v>56</v>
       </c>
-      <c r="QM14" t="n">
+      <c r="QO14" t="n">
         <v>7</v>
       </c>
-      <c r="QN14" t="n">
+      <c r="QP14" t="n">
         <v>14</v>
       </c>
-      <c r="QO14" t="n">
+      <c r="QQ14" t="n">
         <v>1</v>
       </c>
-      <c r="QP14" t="n">
+      <c r="QR14" t="n">
         <v>6</v>
       </c>
-      <c r="QQ14" t="n">
+      <c r="QS14" t="n">
         <v>8</v>
       </c>
-      <c r="QR14" t="n">
+      <c r="QT14" t="n">
         <v>3</v>
       </c>
-      <c r="QS14" t="n">
+      <c r="QU14" t="n">
         <v>0.39030612244898</v>
       </c>
-      <c r="QT14" t="n">
+      <c r="QV14" t="n">
         <v>0.60969387755102</v>
       </c>
-      <c r="QU14" t="n">
+      <c r="QW14" t="n">
         <v>0.388586956521739</v>
       </c>
-      <c r="QV14" t="n">
+      <c r="QX14" t="n">
         <v>0.611413043478261</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B15" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C15" t="n">
         <v>2142</v>
@@ -19956,171 +20034,177 @@
         <v>85</v>
       </c>
       <c r="OV15" t="n">
+        <v>0.697478991596639</v>
+      </c>
+      <c r="OW15" t="n">
         <v>0.504504504504504</v>
       </c>
-      <c r="OW15" t="n">
+      <c r="OX15" t="n">
         <v>0.18018018018018</v>
       </c>
-      <c r="OX15" t="n">
+      <c r="OY15" t="n">
         <v>1775</v>
       </c>
-      <c r="OY15" t="n">
+      <c r="OZ15" t="n">
         <v>122</v>
       </c>
-      <c r="OZ15" t="n">
+      <c r="PA15" t="n">
         <v>311</v>
       </c>
-      <c r="PA15" t="n">
+      <c r="PB15" t="n">
         <v>6</v>
       </c>
-      <c r="PB15" t="n">
+      <c r="PC15" t="n">
         <v>116</v>
       </c>
-      <c r="PC15" t="n">
+      <c r="PD15" t="n">
         <v>186</v>
       </c>
-      <c r="PD15" t="n">
+      <c r="PE15" t="n">
         <v>85</v>
       </c>
-      <c r="PE15" t="n">
+      <c r="PF15" t="n">
         <v>0.697478991596639</v>
       </c>
-      <c r="PF15" t="n">
+      <c r="PG15" t="n">
         <v>0.5</v>
       </c>
-      <c r="PG15" t="n">
+      <c r="PH15" t="n">
         <v>0.175925925925926</v>
       </c>
-      <c r="PH15" t="n">
+      <c r="PI15" t="n">
         <v>0</v>
       </c>
-      <c r="PI15" t="n">
+      <c r="PJ15" t="n">
         <v>4</v>
       </c>
-      <c r="PJ15" t="n">
+      <c r="PK15" t="n">
         <v>3</v>
       </c>
-      <c r="PK15" t="n">
+      <c r="PL15" t="n">
         <v>1</v>
       </c>
-      <c r="PL15" t="n">
+      <c r="PM15" t="n">
         <v>3</v>
-      </c>
-      <c r="PM15" t="n">
-        <v>0</v>
       </c>
       <c r="PN15" t="n">
         <v>0</v>
       </c>
       <c r="PO15" t="n">
+        <v>0</v>
+      </c>
+      <c r="PP15" t="n">
         <v>0.423423423423423</v>
       </c>
-      <c r="PP15" t="n">
+      <c r="PQ15" t="n">
         <v>0.576576576576577</v>
       </c>
-      <c r="PQ15" t="n">
+      <c r="PR15" t="n">
         <v>0.418981481481482</v>
       </c>
-      <c r="PR15" t="n">
+      <c r="PS15" t="n">
         <v>0.581018518518518</v>
       </c>
-      <c r="PS15" t="n">
+      <c r="PT15" t="n">
         <v>1486</v>
       </c>
-      <c r="PT15" t="n">
+      <c r="PU15" t="n">
         <v>95</v>
       </c>
-      <c r="PU15" t="n">
+      <c r="PV15" t="n">
         <v>183</v>
       </c>
-      <c r="PV15" t="n">
+      <c r="PW15" t="n">
         <v>8</v>
       </c>
-      <c r="PW15" t="n">
+      <c r="PX15" t="n">
         <v>87</v>
       </c>
-      <c r="PX15" t="n">
+      <c r="PY15" t="n">
         <v>91</v>
       </c>
-      <c r="PY15" t="n">
+      <c r="PZ15" t="n">
         <v>51</v>
       </c>
-      <c r="PZ15" t="n">
+      <c r="QA15" t="n">
+        <v>0.655172413793103</v>
+      </c>
+      <c r="QB15" t="n">
         <v>0.425287356321839</v>
       </c>
-      <c r="QA15" t="n">
+      <c r="QC15" t="n">
         <v>0.229885057471264</v>
       </c>
-      <c r="QB15" t="n">
+      <c r="QD15" t="n">
         <v>1486</v>
       </c>
-      <c r="QC15" t="n">
+      <c r="QE15" t="n">
         <v>92</v>
       </c>
-      <c r="QD15" t="n">
+      <c r="QF15" t="n">
         <v>179</v>
       </c>
-      <c r="QE15" t="n">
+      <c r="QG15" t="n">
         <v>7</v>
       </c>
-      <c r="QF15" t="n">
+      <c r="QH15" t="n">
         <v>85</v>
       </c>
-      <c r="QG15" t="n">
+      <c r="QI15" t="n">
         <v>89</v>
       </c>
-      <c r="QH15" t="n">
+      <c r="QJ15" t="n">
         <v>50</v>
       </c>
-      <c r="QI15" t="n">
+      <c r="QK15" t="n">
         <v>0.655172413793103</v>
       </c>
-      <c r="QJ15" t="n">
+      <c r="QL15" t="n">
         <v>0.423529411764706</v>
       </c>
-      <c r="QK15" t="n">
+      <c r="QM15" t="n">
         <v>0.223529411764706</v>
       </c>
-      <c r="QL15" t="n">
+      <c r="QN15" t="n">
         <v>0</v>
       </c>
-      <c r="QM15" t="n">
+      <c r="QO15" t="n">
         <v>3</v>
       </c>
-      <c r="QN15" t="n">
+      <c r="QP15" t="n">
         <v>4</v>
       </c>
-      <c r="QO15" t="n">
+      <c r="QQ15" t="n">
         <v>1</v>
       </c>
-      <c r="QP15" t="n">
+      <c r="QR15" t="n">
         <v>2</v>
       </c>
-      <c r="QQ15" t="n">
+      <c r="QS15" t="n">
         <v>2</v>
       </c>
-      <c r="QR15" t="n">
+      <c r="QT15" t="n">
         <v>1</v>
       </c>
-      <c r="QS15" t="n">
+      <c r="QU15" t="n">
         <v>0.376436781609195</v>
       </c>
-      <c r="QT15" t="n">
+      <c r="QV15" t="n">
         <v>0.623563218390805</v>
       </c>
-      <c r="QU15" t="n">
+      <c r="QW15" t="n">
         <v>0.373529411764706</v>
       </c>
-      <c r="QV15" t="n">
+      <c r="QX15" t="n">
         <v>0.626470588235294</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B16" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C16" t="n">
         <v>2376</v>
@@ -21294,171 +21378,177 @@
         <v>125</v>
       </c>
       <c r="OV16" t="n">
+        <v>0.647058823529412</v>
+      </c>
+      <c r="OW16" t="n">
         <v>0.402777777777778</v>
       </c>
-      <c r="OW16" t="n">
+      <c r="OX16" t="n">
         <v>0.229166666666667</v>
       </c>
-      <c r="OX16" t="n">
+      <c r="OY16" t="n">
         <v>2183</v>
       </c>
-      <c r="OY16" t="n">
+      <c r="OZ16" t="n">
         <v>145</v>
       </c>
-      <c r="OZ16" t="n">
+      <c r="PA16" t="n">
         <v>407</v>
       </c>
-      <c r="PA16" t="n">
+      <c r="PB16" t="n">
         <v>10</v>
       </c>
-      <c r="PB16" t="n">
+      <c r="PC16" t="n">
         <v>135</v>
       </c>
-      <c r="PC16" t="n">
+      <c r="PD16" t="n">
         <v>248</v>
       </c>
-      <c r="PD16" t="n">
+      <c r="PE16" t="n">
         <v>113</v>
       </c>
-      <c r="PE16" t="n">
+      <c r="PF16" t="n">
         <v>0.647058823529412</v>
       </c>
-      <c r="PF16" t="n">
+      <c r="PG16" t="n">
         <v>0.412698412698413</v>
       </c>
-      <c r="PG16" t="n">
+      <c r="PH16" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="PH16" t="n">
+      <c r="PI16" t="n">
         <v>265</v>
       </c>
-      <c r="PI16" t="n">
+      <c r="PJ16" t="n">
         <v>22</v>
       </c>
-      <c r="PJ16" t="n">
+      <c r="PK16" t="n">
         <v>43</v>
       </c>
-      <c r="PK16" t="n">
+      <c r="PL16" t="n">
         <v>4</v>
       </c>
-      <c r="PL16" t="n">
+      <c r="PM16" t="n">
         <v>18</v>
       </c>
-      <c r="PM16" t="n">
+      <c r="PN16" t="n">
         <v>24</v>
       </c>
-      <c r="PN16" t="n">
+      <c r="PO16" t="n">
         <v>12</v>
       </c>
-      <c r="PO16" t="n">
+      <c r="PP16" t="n">
         <v>0.359375</v>
       </c>
-      <c r="PP16" t="n">
+      <c r="PQ16" t="n">
         <v>0.640625</v>
       </c>
-      <c r="PQ16" t="n">
+      <c r="PR16" t="n">
         <v>0.365079365079365</v>
       </c>
-      <c r="PR16" t="n">
+      <c r="PS16" t="n">
         <v>0.634920634920635</v>
       </c>
-      <c r="PS16" t="n">
+      <c r="PT16" t="n">
         <v>1526</v>
       </c>
-      <c r="PT16" t="n">
+      <c r="PU16" t="n">
         <v>150</v>
       </c>
-      <c r="PU16" t="n">
+      <c r="PV16" t="n">
         <v>388</v>
       </c>
-      <c r="PV16" t="n">
+      <c r="PW16" t="n">
         <v>20</v>
       </c>
-      <c r="PW16" t="n">
+      <c r="PX16" t="n">
         <v>130</v>
       </c>
-      <c r="PX16" t="n">
+      <c r="PY16" t="n">
         <v>253</v>
       </c>
-      <c r="PY16" t="n">
+      <c r="PZ16" t="n">
         <v>95</v>
       </c>
-      <c r="PZ16" t="n">
+      <c r="QA16" t="n">
+        <v>0.607692307692308</v>
+      </c>
+      <c r="QB16" t="n">
         <v>0.423076923076923</v>
       </c>
-      <c r="QA16" t="n">
+      <c r="QC16" t="n">
         <v>0.184615384615385</v>
       </c>
-      <c r="QB16" t="n">
+      <c r="QD16" t="n">
         <v>1488</v>
       </c>
-      <c r="QC16" t="n">
+      <c r="QE16" t="n">
         <v>141</v>
       </c>
-      <c r="QD16" t="n">
+      <c r="QF16" t="n">
         <v>364</v>
       </c>
-      <c r="QE16" t="n">
+      <c r="QG16" t="n">
         <v>17</v>
       </c>
-      <c r="QF16" t="n">
+      <c r="QH16" t="n">
         <v>124</v>
       </c>
-      <c r="QG16" t="n">
+      <c r="QI16" t="n">
         <v>236</v>
       </c>
-      <c r="QH16" t="n">
+      <c r="QJ16" t="n">
         <v>89</v>
       </c>
-      <c r="QI16" t="n">
+      <c r="QK16" t="n">
         <v>0.607692307692308</v>
       </c>
-      <c r="QJ16" t="n">
+      <c r="QL16" t="n">
         <v>0.435483870967742</v>
       </c>
-      <c r="QK16" t="n">
+      <c r="QM16" t="n">
         <v>0.17741935483871</v>
       </c>
-      <c r="QL16" t="n">
+      <c r="QN16" t="n">
         <v>38</v>
       </c>
-      <c r="QM16" t="n">
+      <c r="QO16" t="n">
         <v>9</v>
       </c>
-      <c r="QN16" t="n">
+      <c r="QP16" t="n">
         <v>24</v>
       </c>
-      <c r="QO16" t="n">
+      <c r="QQ16" t="n">
         <v>3</v>
-      </c>
-      <c r="QP16" t="n">
-        <v>6</v>
-      </c>
-      <c r="QQ16" t="n">
-        <v>17</v>
       </c>
       <c r="QR16" t="n">
         <v>6</v>
       </c>
       <c r="QS16" t="n">
+        <v>17</v>
+      </c>
+      <c r="QT16" t="n">
+        <v>6</v>
+      </c>
+      <c r="QU16" t="n">
         <v>0.363461538461538</v>
       </c>
-      <c r="QT16" t="n">
+      <c r="QV16" t="n">
         <v>0.636538461538461</v>
       </c>
-      <c r="QU16" t="n">
+      <c r="QW16" t="n">
         <v>0.370967741935484</v>
       </c>
-      <c r="QV16" t="n">
+      <c r="QX16" t="n">
         <v>0.629032258064516</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B17" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C17" t="n">
         <v>2747</v>
@@ -21776,7 +21866,7 @@
         <v>0.292647058823529</v>
       </c>
       <c r="DD17" t="n">
-        <v>0.70735294117647</v>
+        <v>0.707352941176471</v>
       </c>
       <c r="DE17" t="n">
         <v>2937</v>
@@ -22355,7 +22445,7 @@
         <v>44</v>
       </c>
       <c r="LC17" t="n">
-        <v>0.40983606557377</v>
+        <v>0.409836065573771</v>
       </c>
       <c r="LD17" t="n">
         <v>0.162790697674419</v>
@@ -22419,7 +22509,7 @@
         <v>179</v>
       </c>
       <c r="MC17" t="n">
-        <v>0.74054054054054</v>
+        <v>0.740540540540541</v>
       </c>
       <c r="MD17" t="n">
         <v>345</v>
@@ -22464,7 +22554,7 @@
         <v>69</v>
       </c>
       <c r="MR17" t="n">
-        <v>0.77906976744186</v>
+        <v>0.779069767441861</v>
       </c>
       <c r="MS17" t="n">
         <v>678</v>
@@ -22488,7 +22578,7 @@
         <v>68</v>
       </c>
       <c r="MZ17" t="n">
-        <v>0.77906976744186</v>
+        <v>0.779069767441861</v>
       </c>
       <c r="NA17" t="n">
         <v>0</v>
@@ -22512,16 +22602,16 @@
         <v>1</v>
       </c>
       <c r="NH17" t="n">
-        <v>0.77906976744186</v>
+        <v>0.779069767441861</v>
       </c>
       <c r="NI17" t="n">
-        <v>0.77906976744186</v>
+        <v>0.779069767441861</v>
       </c>
       <c r="NJ17" t="n">
         <v>0.220930232558139</v>
       </c>
       <c r="NK17" t="n">
-        <v>0.77906976744186</v>
+        <v>0.779069767441861</v>
       </c>
       <c r="NL17" t="n">
         <v>0.220930232558139</v>
@@ -22632,171 +22722,177 @@
         <v>139</v>
       </c>
       <c r="OV17" t="n">
+        <v>0.74375</v>
+      </c>
+      <c r="OW17" t="n">
         <v>0.486666666666667</v>
       </c>
-      <c r="OW17" t="n">
+      <c r="OX17" t="n">
         <v>0.246666666666667</v>
       </c>
-      <c r="OX17" t="n">
+      <c r="OY17" t="n">
         <v>1891</v>
       </c>
-      <c r="OY17" t="n">
+      <c r="OZ17" t="n">
         <v>153</v>
       </c>
-      <c r="OZ17" t="n">
+      <c r="PA17" t="n">
         <v>491</v>
       </c>
-      <c r="PA17" t="n">
+      <c r="PB17" t="n">
         <v>7</v>
       </c>
-      <c r="PB17" t="n">
+      <c r="PC17" t="n">
         <v>146</v>
       </c>
-      <c r="PC17" t="n">
+      <c r="PD17" t="n">
         <v>330</v>
       </c>
-      <c r="PD17" t="n">
+      <c r="PE17" t="n">
         <v>128</v>
       </c>
-      <c r="PE17" t="n">
+      <c r="PF17" t="n">
         <v>0.74375</v>
       </c>
-      <c r="PF17" t="n">
+      <c r="PG17" t="n">
         <v>0.485294117647059</v>
       </c>
-      <c r="PG17" t="n">
+      <c r="PH17" t="n">
         <v>0.25</v>
       </c>
-      <c r="PH17" t="n">
+      <c r="PI17" t="n">
         <v>94</v>
       </c>
-      <c r="PI17" t="n">
+      <c r="PJ17" t="n">
         <v>15</v>
       </c>
-      <c r="PJ17" t="n">
+      <c r="PK17" t="n">
         <v>34</v>
       </c>
-      <c r="PK17" t="n">
+      <c r="PL17" t="n">
         <v>1</v>
       </c>
-      <c r="PL17" t="n">
+      <c r="PM17" t="n">
         <v>14</v>
       </c>
-      <c r="PM17" t="n">
+      <c r="PN17" t="n">
         <v>20</v>
       </c>
-      <c r="PN17" t="n">
+      <c r="PO17" t="n">
         <v>11</v>
       </c>
-      <c r="PO17" t="n">
+      <c r="PP17" t="n">
         <v>0.426666666666667</v>
       </c>
-      <c r="PP17" t="n">
+      <c r="PQ17" t="n">
         <v>0.573333333333333</v>
       </c>
-      <c r="PQ17" t="n">
+      <c r="PR17" t="n">
         <v>0.426470588235294</v>
       </c>
-      <c r="PR17" t="n">
+      <c r="PS17" t="n">
         <v>0.573529411764706</v>
       </c>
-      <c r="PS17" t="n">
+      <c r="PT17" t="n">
         <v>611</v>
       </c>
-      <c r="PT17" t="n">
+      <c r="PU17" t="n">
         <v>133</v>
       </c>
-      <c r="PU17" t="n">
+      <c r="PV17" t="n">
         <v>311</v>
       </c>
-      <c r="PV17" t="n">
+      <c r="PW17" t="n">
         <v>9</v>
       </c>
-      <c r="PW17" t="n">
+      <c r="PX17" t="n">
         <v>124</v>
       </c>
-      <c r="PX17" t="n">
+      <c r="PY17" t="n">
         <v>184</v>
       </c>
-      <c r="PY17" t="n">
+      <c r="PZ17" t="n">
         <v>96</v>
       </c>
-      <c r="PZ17" t="n">
+      <c r="QA17" t="n">
+        <v>0.725806451612903</v>
+      </c>
+      <c r="QB17" t="n">
         <v>0.483870967741935</v>
       </c>
-      <c r="QA17" t="n">
+      <c r="QC17" t="n">
         <v>0.241935483870968</v>
       </c>
-      <c r="QB17" t="n">
+      <c r="QD17" t="n">
         <v>611</v>
       </c>
-      <c r="QC17" t="n">
+      <c r="QE17" t="n">
         <v>124</v>
       </c>
-      <c r="QD17" t="n">
+      <c r="QF17" t="n">
         <v>294</v>
       </c>
-      <c r="QE17" t="n">
+      <c r="QG17" t="n">
         <v>7</v>
       </c>
-      <c r="QF17" t="n">
+      <c r="QH17" t="n">
         <v>117</v>
       </c>
-      <c r="QG17" t="n">
+      <c r="QI17" t="n">
         <v>174</v>
       </c>
-      <c r="QH17" t="n">
+      <c r="QJ17" t="n">
         <v>92</v>
       </c>
-      <c r="QI17" t="n">
+      <c r="QK17" t="n">
         <v>0.725806451612903</v>
       </c>
-      <c r="QJ17" t="n">
+      <c r="QL17" t="n">
         <v>0.504273504273504</v>
       </c>
-      <c r="QK17" t="n">
+      <c r="QM17" t="n">
         <v>0.205128205128205</v>
       </c>
-      <c r="QL17" t="n">
+      <c r="QN17" t="n">
         <v>0</v>
       </c>
-      <c r="QM17" t="n">
+      <c r="QO17" t="n">
         <v>9</v>
       </c>
-      <c r="QN17" t="n">
+      <c r="QP17" t="n">
         <v>17</v>
       </c>
-      <c r="QO17" t="n">
+      <c r="QQ17" t="n">
         <v>2</v>
       </c>
-      <c r="QP17" t="n">
+      <c r="QR17" t="n">
         <v>7</v>
       </c>
-      <c r="QQ17" t="n">
+      <c r="QS17" t="n">
         <v>10</v>
       </c>
-      <c r="QR17" t="n">
+      <c r="QT17" t="n">
         <v>4</v>
       </c>
-      <c r="QS17" t="n">
+      <c r="QU17" t="n">
         <v>0.423387096774194</v>
       </c>
-      <c r="QT17" t="n">
+      <c r="QV17" t="n">
         <v>0.576612903225806</v>
       </c>
-      <c r="QU17" t="n">
+      <c r="QW17" t="n">
         <v>0.429487179487179</v>
       </c>
-      <c r="QV17" t="n">
+      <c r="QX17" t="n">
         <v>0.57051282051282</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B18" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C18" t="n">
         <v>3039</v>
@@ -23970,171 +24066,177 @@
         <v>99</v>
       </c>
       <c r="OV18" t="n">
+        <v>0.679389312977099</v>
+      </c>
+      <c r="OW18" t="n">
         <v>0.42741935483871</v>
       </c>
-      <c r="OW18" t="n">
+      <c r="OX18" t="n">
         <v>0.241935483870968</v>
       </c>
-      <c r="OX18" t="n">
+      <c r="OY18" t="n">
         <v>1854</v>
       </c>
-      <c r="OY18" t="n">
+      <c r="OZ18" t="n">
         <v>127</v>
       </c>
-      <c r="OZ18" t="n">
+      <c r="PA18" t="n">
         <v>440</v>
       </c>
-      <c r="PA18" t="n">
+      <c r="PB18" t="n">
         <v>2</v>
       </c>
-      <c r="PB18" t="n">
+      <c r="PC18" t="n">
         <v>125</v>
       </c>
-      <c r="PC18" t="n">
+      <c r="PD18" t="n">
         <v>291</v>
       </c>
-      <c r="PD18" t="n">
+      <c r="PE18" t="n">
         <v>95</v>
       </c>
-      <c r="PE18" t="n">
+      <c r="PF18" t="n">
         <v>0.679389312977099</v>
       </c>
-      <c r="PF18" t="n">
+      <c r="PG18" t="n">
         <v>0.432203389830508</v>
       </c>
-      <c r="PG18" t="n">
+      <c r="PH18" t="n">
         <v>0.245762711864407</v>
       </c>
-      <c r="PH18" t="n">
+      <c r="PI18" t="n">
         <v>40</v>
       </c>
-      <c r="PI18" t="n">
+      <c r="PJ18" t="n">
         <v>6</v>
       </c>
-      <c r="PJ18" t="n">
+      <c r="PK18" t="n">
         <v>19</v>
       </c>
-      <c r="PK18" t="n">
+      <c r="PL18" t="n">
         <v>0</v>
       </c>
-      <c r="PL18" t="n">
+      <c r="PM18" t="n">
         <v>6</v>
       </c>
-      <c r="PM18" t="n">
+      <c r="PN18" t="n">
         <v>12</v>
       </c>
-      <c r="PN18" t="n">
+      <c r="PO18" t="n">
         <v>4</v>
       </c>
-      <c r="PO18" t="n">
+      <c r="PP18" t="n">
         <v>0.381048387096774</v>
       </c>
-      <c r="PP18" t="n">
+      <c r="PQ18" t="n">
         <v>0.618951612903226</v>
       </c>
-      <c r="PQ18" t="n">
+      <c r="PR18" t="n">
         <v>0.385593220338983</v>
       </c>
-      <c r="PR18" t="n">
+      <c r="PS18" t="n">
         <v>0.614406779661017</v>
       </c>
-      <c r="PS18" t="n">
+      <c r="PT18" t="n">
         <v>619</v>
       </c>
-      <c r="PT18" t="n">
+      <c r="PU18" t="n">
         <v>122</v>
       </c>
-      <c r="PU18" t="n">
+      <c r="PV18" t="n">
         <v>380</v>
       </c>
-      <c r="PV18" t="n">
+      <c r="PW18" t="n">
         <v>9</v>
       </c>
-      <c r="PW18" t="n">
+      <c r="PX18" t="n">
         <v>113</v>
       </c>
-      <c r="PX18" t="n">
+      <c r="PY18" t="n">
         <v>262</v>
       </c>
-      <c r="PY18" t="n">
+      <c r="PZ18" t="n">
         <v>91</v>
       </c>
-      <c r="PZ18" t="n">
+      <c r="QA18" t="n">
+        <v>0.672566371681416</v>
+      </c>
+      <c r="QB18" t="n">
         <v>0.389380530973451</v>
       </c>
-      <c r="QA18" t="n">
+      <c r="QC18" t="n">
         <v>0.283185840707965</v>
       </c>
-      <c r="QB18" t="n">
+      <c r="QD18" t="n">
         <v>619</v>
       </c>
-      <c r="QC18" t="n">
+      <c r="QE18" t="n">
         <v>120</v>
       </c>
-      <c r="QD18" t="n">
+      <c r="QF18" t="n">
         <v>369</v>
       </c>
-      <c r="QE18" t="n">
+      <c r="QG18" t="n">
         <v>9</v>
       </c>
-      <c r="QF18" t="n">
+      <c r="QH18" t="n">
         <v>111</v>
       </c>
-      <c r="QG18" t="n">
+      <c r="QI18" t="n">
         <v>253</v>
       </c>
-      <c r="QH18" t="n">
+      <c r="QJ18" t="n">
         <v>89</v>
       </c>
-      <c r="QI18" t="n">
+      <c r="QK18" t="n">
         <v>0.672566371681416</v>
       </c>
-      <c r="QJ18" t="n">
+      <c r="QL18" t="n">
         <v>0.378378378378378</v>
       </c>
-      <c r="QK18" t="n">
+      <c r="QM18" t="n">
         <v>0.288288288288288</v>
       </c>
-      <c r="QL18" t="n">
+      <c r="QN18" t="n">
         <v>0</v>
       </c>
-      <c r="QM18" t="n">
+      <c r="QO18" t="n">
         <v>2</v>
       </c>
-      <c r="QN18" t="n">
+      <c r="QP18" t="n">
         <v>11</v>
       </c>
-      <c r="QO18" t="n">
+      <c r="QQ18" t="n">
         <v>0</v>
-      </c>
-      <c r="QP18" t="n">
-        <v>2</v>
-      </c>
-      <c r="QQ18" t="n">
-        <v>9</v>
       </c>
       <c r="QR18" t="n">
         <v>2</v>
       </c>
       <c r="QS18" t="n">
+        <v>9</v>
+      </c>
+      <c r="QT18" t="n">
+        <v>2</v>
+      </c>
+      <c r="QU18" t="n">
         <v>0.36283185840708</v>
       </c>
-      <c r="QT18" t="n">
+      <c r="QV18" t="n">
         <v>0.63716814159292</v>
       </c>
-      <c r="QU18" t="n">
+      <c r="QW18" t="n">
         <v>0.355855855855856</v>
       </c>
-      <c r="QV18" t="n">
+      <c r="QX18" t="n">
         <v>0.644144144144144</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B19" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C19" t="n">
         <v>2327</v>
@@ -25095,7 +25197,7 @@
         <v>124</v>
       </c>
       <c r="MC19" t="n">
-        <v>0.68939393939394</v>
+        <v>0.689393939393939</v>
       </c>
       <c r="MD19" t="n">
         <v>750</v>
@@ -25308,171 +25410,177 @@
         <v>101</v>
       </c>
       <c r="OV19" t="n">
-        <v>0.40983606557377</v>
+        <v>0.694656488549618</v>
       </c>
       <c r="OW19" t="n">
+        <v>0.409836065573771</v>
+      </c>
+      <c r="OX19" t="n">
         <v>0.278688524590164</v>
       </c>
-      <c r="OX19" t="n">
+      <c r="OY19" t="n">
         <v>1831</v>
       </c>
-      <c r="OY19" t="n">
+      <c r="OZ19" t="n">
         <v>133</v>
       </c>
-      <c r="OZ19" t="n">
+      <c r="PA19" t="n">
         <v>369</v>
       </c>
-      <c r="PA19" t="n">
+      <c r="PB19" t="n">
         <v>6</v>
       </c>
-      <c r="PB19" t="n">
+      <c r="PC19" t="n">
         <v>127</v>
       </c>
-      <c r="PC19" t="n">
+      <c r="PD19" t="n">
         <v>230</v>
       </c>
-      <c r="PD19" t="n">
+      <c r="PE19" t="n">
         <v>98</v>
       </c>
-      <c r="PE19" t="n">
+      <c r="PF19" t="n">
         <v>0.694656488549618</v>
       </c>
-      <c r="PF19" t="n">
+      <c r="PG19" t="n">
         <v>0.406779661016949</v>
       </c>
-      <c r="PG19" t="n">
+      <c r="PH19" t="n">
         <v>0.288135593220339</v>
       </c>
-      <c r="PH19" t="n">
+      <c r="PI19" t="n">
         <v>0</v>
       </c>
-      <c r="PI19" t="n">
+      <c r="PJ19" t="n">
         <v>7</v>
       </c>
-      <c r="PJ19" t="n">
+      <c r="PK19" t="n">
         <v>15</v>
       </c>
-      <c r="PK19" t="n">
+      <c r="PL19" t="n">
         <v>3</v>
       </c>
-      <c r="PL19" t="n">
+      <c r="PM19" t="n">
         <v>4</v>
       </c>
-      <c r="PM19" t="n">
+      <c r="PN19" t="n">
         <v>11</v>
       </c>
-      <c r="PN19" t="n">
+      <c r="PO19" t="n">
         <v>3</v>
       </c>
-      <c r="PO19" t="n">
+      <c r="PP19" t="n">
         <v>0.377049180327869</v>
       </c>
-      <c r="PP19" t="n">
+      <c r="PQ19" t="n">
         <v>0.622950819672131</v>
       </c>
-      <c r="PQ19" t="n">
+      <c r="PR19" t="n">
         <v>0.377118644067797</v>
       </c>
-      <c r="PR19" t="n">
+      <c r="PS19" t="n">
         <v>0.622881355932203</v>
       </c>
-      <c r="PS19" t="n">
+      <c r="PT19" t="n">
         <v>836</v>
       </c>
-      <c r="PT19" t="n">
+      <c r="PU19" t="n">
         <v>122</v>
       </c>
-      <c r="PU19" t="n">
+      <c r="PV19" t="n">
         <v>290</v>
       </c>
-      <c r="PV19" t="n">
+      <c r="PW19" t="n">
         <v>8</v>
       </c>
-      <c r="PW19" t="n">
+      <c r="PX19" t="n">
         <v>114</v>
       </c>
-      <c r="PX19" t="n">
+      <c r="PY19" t="n">
         <v>171</v>
       </c>
-      <c r="PY19" t="n">
+      <c r="PZ19" t="n">
         <v>84</v>
       </c>
-      <c r="PZ19" t="n">
+      <c r="QA19" t="n">
+        <v>0.675438596491228</v>
+      </c>
+      <c r="QB19" t="n">
         <v>0.491228070175439</v>
       </c>
-      <c r="QA19" t="n">
+      <c r="QC19" t="n">
         <v>0.184210526315789</v>
       </c>
-      <c r="QB19" t="n">
+      <c r="QD19" t="n">
         <v>836</v>
       </c>
-      <c r="QC19" t="n">
+      <c r="QE19" t="n">
         <v>119</v>
       </c>
-      <c r="QD19" t="n">
+      <c r="QF19" t="n">
         <v>281</v>
       </c>
-      <c r="QE19" t="n">
+      <c r="QG19" t="n">
         <v>8</v>
       </c>
-      <c r="QF19" t="n">
+      <c r="QH19" t="n">
         <v>111</v>
       </c>
-      <c r="QG19" t="n">
+      <c r="QI19" t="n">
         <v>165</v>
       </c>
-      <c r="QH19" t="n">
+      <c r="QJ19" t="n">
         <v>81</v>
       </c>
-      <c r="QI19" t="n">
+      <c r="QK19" t="n">
         <v>0.675438596491228</v>
       </c>
-      <c r="QJ19" t="n">
+      <c r="QL19" t="n">
         <v>0.477477477477477</v>
       </c>
-      <c r="QK19" t="n">
+      <c r="QM19" t="n">
         <v>0.189189189189189</v>
       </c>
-      <c r="QL19" t="n">
+      <c r="QN19" t="n">
         <v>0</v>
       </c>
-      <c r="QM19" t="n">
+      <c r="QO19" t="n">
         <v>3</v>
       </c>
-      <c r="QN19" t="n">
+      <c r="QP19" t="n">
         <v>9</v>
       </c>
-      <c r="QO19" t="n">
+      <c r="QQ19" t="n">
         <v>0</v>
-      </c>
-      <c r="QP19" t="n">
-        <v>3</v>
-      </c>
-      <c r="QQ19" t="n">
-        <v>6</v>
       </c>
       <c r="QR19" t="n">
         <v>3</v>
       </c>
       <c r="QS19" t="n">
+        <v>6</v>
+      </c>
+      <c r="QT19" t="n">
+        <v>3</v>
+      </c>
+      <c r="QU19" t="n">
         <v>0.414473684210526</v>
       </c>
-      <c r="QT19" t="n">
+      <c r="QV19" t="n">
         <v>0.585526315789474</v>
       </c>
-      <c r="QU19" t="n">
+      <c r="QW19" t="n">
         <v>0.405405405405405</v>
       </c>
-      <c r="QV19" t="n">
+      <c r="QX19" t="n">
         <v>0.594594594594595</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B20" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C20" t="n">
         <v>1728</v>
@@ -26646,171 +26754,177 @@
         <v>103</v>
       </c>
       <c r="OV20" t="n">
+        <v>0.72020725388601</v>
+      </c>
+      <c r="OW20" t="n">
         <v>0.475935828877005</v>
       </c>
-      <c r="OW20" t="n">
+      <c r="OX20" t="n">
         <v>0.240641711229947</v>
       </c>
-      <c r="OX20" t="n">
+      <c r="OY20" t="n">
         <v>1811</v>
       </c>
-      <c r="OY20" t="n">
+      <c r="OZ20" t="n">
         <v>204</v>
       </c>
-      <c r="OZ20" t="n">
+      <c r="PA20" t="n">
         <v>387</v>
       </c>
-      <c r="PA20" t="n">
+      <c r="PB20" t="n">
         <v>18</v>
       </c>
-      <c r="PB20" t="n">
+      <c r="PC20" t="n">
         <v>186</v>
       </c>
-      <c r="PC20" t="n">
+      <c r="PD20" t="n">
         <v>188</v>
       </c>
-      <c r="PD20" t="n">
+      <c r="PE20" t="n">
         <v>102</v>
       </c>
-      <c r="PE20" t="n">
+      <c r="PF20" t="n">
         <v>0.72020725388601</v>
       </c>
-      <c r="PF20" t="n">
+      <c r="PG20" t="n">
         <v>0.483333333333333</v>
       </c>
-      <c r="PG20" t="n">
+      <c r="PH20" t="n">
         <v>0.244444444444444</v>
       </c>
-      <c r="PH20" t="n">
+      <c r="PI20" t="n">
         <v>0</v>
       </c>
-      <c r="PI20" t="n">
+      <c r="PJ20" t="n">
         <v>11</v>
       </c>
-      <c r="PJ20" t="n">
+      <c r="PK20" t="n">
         <v>8</v>
       </c>
-      <c r="PK20" t="n">
+      <c r="PL20" t="n">
         <v>4</v>
       </c>
-      <c r="PL20" t="n">
+      <c r="PM20" t="n">
         <v>7</v>
-      </c>
-      <c r="PM20" t="n">
-        <v>1</v>
       </c>
       <c r="PN20" t="n">
         <v>1</v>
       </c>
       <c r="PO20" t="n">
+        <v>1</v>
+      </c>
+      <c r="PP20" t="n">
         <v>0.417112299465241</v>
       </c>
-      <c r="PP20" t="n">
+      <c r="PQ20" t="n">
         <v>0.582887700534759</v>
       </c>
-      <c r="PQ20" t="n">
+      <c r="PR20" t="n">
         <v>0.423611111111111</v>
       </c>
-      <c r="PR20" t="n">
+      <c r="PS20" t="n">
         <v>0.576388888888889</v>
       </c>
-      <c r="PS20" t="n">
+      <c r="PT20" t="n">
         <v>54</v>
       </c>
-      <c r="PT20" t="n">
+      <c r="PU20" t="n">
         <v>237</v>
       </c>
-      <c r="PU20" t="n">
+      <c r="PV20" t="n">
         <v>362</v>
       </c>
-      <c r="PV20" t="n">
+      <c r="PW20" t="n">
         <v>8</v>
       </c>
-      <c r="PW20" t="n">
+      <c r="PX20" t="n">
         <v>229</v>
       </c>
-      <c r="PX20" t="n">
+      <c r="PY20" t="n">
         <v>133</v>
       </c>
-      <c r="PY20" t="n">
+      <c r="PZ20" t="n">
         <v>82</v>
       </c>
-      <c r="PZ20" t="n">
+      <c r="QA20" t="n">
+        <v>0.716157205240175</v>
+      </c>
+      <c r="QB20" t="n">
         <v>0.541484716157205</v>
       </c>
-      <c r="QA20" t="n">
+      <c r="QC20" t="n">
         <v>0.174672489082969</v>
       </c>
-      <c r="QB20" t="n">
+      <c r="QD20" t="n">
         <v>54</v>
       </c>
-      <c r="QC20" t="n">
+      <c r="QE20" t="n">
         <v>217</v>
       </c>
-      <c r="QD20" t="n">
+      <c r="QF20" t="n">
         <v>329</v>
       </c>
-      <c r="QE20" t="n">
+      <c r="QG20" t="n">
         <v>6</v>
       </c>
-      <c r="QF20" t="n">
+      <c r="QH20" t="n">
         <v>211</v>
       </c>
-      <c r="QG20" t="n">
+      <c r="QI20" t="n">
         <v>118</v>
       </c>
-      <c r="QH20" t="n">
+      <c r="QJ20" t="n">
         <v>73</v>
       </c>
-      <c r="QI20" t="n">
+      <c r="QK20" t="n">
         <v>0.716157205240175</v>
       </c>
-      <c r="QJ20" t="n">
+      <c r="QL20" t="n">
         <v>0.545023696682464</v>
       </c>
-      <c r="QK20" t="n">
+      <c r="QM20" t="n">
         <v>0.175355450236967</v>
       </c>
-      <c r="QL20" t="n">
+      <c r="QN20" t="n">
         <v>0</v>
       </c>
-      <c r="QM20" t="n">
+      <c r="QO20" t="n">
         <v>20</v>
       </c>
-      <c r="QN20" t="n">
+      <c r="QP20" t="n">
         <v>33</v>
       </c>
-      <c r="QO20" t="n">
+      <c r="QQ20" t="n">
         <v>2</v>
       </c>
-      <c r="QP20" t="n">
+      <c r="QR20" t="n">
         <v>18</v>
       </c>
-      <c r="QQ20" t="n">
+      <c r="QS20" t="n">
         <v>15</v>
       </c>
-      <c r="QR20" t="n">
+      <c r="QT20" t="n">
         <v>9</v>
       </c>
-      <c r="QS20" t="n">
+      <c r="QU20" t="n">
         <v>0.449781659388646</v>
       </c>
-      <c r="QT20" t="n">
+      <c r="QV20" t="n">
         <v>0.550218340611354</v>
       </c>
-      <c r="QU20" t="n">
+      <c r="QW20" t="n">
         <v>0.45260663507109</v>
       </c>
-      <c r="QV20" t="n">
+      <c r="QX20" t="n">
         <v>0.54739336492891</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B21" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C21" t="n">
         <v>2692</v>
@@ -26855,7 +26969,7 @@
         <v>56</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.82716049382716</v>
+        <v>0.827160493827161</v>
       </c>
       <c r="R21" t="n">
         <v>211</v>
@@ -27984,171 +28098,177 @@
         <v>96</v>
       </c>
       <c r="OV21" t="n">
+        <v>0.675496688741722</v>
+      </c>
+      <c r="OW21" t="n">
         <v>0.442953020134228</v>
       </c>
-      <c r="OW21" t="n">
+      <c r="OX21" t="n">
         <v>0.23489932885906</v>
       </c>
-      <c r="OX21" t="n">
+      <c r="OY21" t="n">
         <v>1387</v>
       </c>
-      <c r="OY21" t="n">
+      <c r="OZ21" t="n">
         <v>167</v>
       </c>
-      <c r="OZ21" t="n">
+      <c r="PA21" t="n">
         <v>372</v>
       </c>
-      <c r="PA21" t="n">
+      <c r="PB21" t="n">
         <v>29</v>
       </c>
-      <c r="PB21" t="n">
+      <c r="PC21" t="n">
         <v>138</v>
       </c>
-      <c r="PC21" t="n">
+      <c r="PD21" t="n">
         <v>226</v>
       </c>
-      <c r="PD21" t="n">
+      <c r="PE21" t="n">
         <v>85</v>
       </c>
-      <c r="PE21" t="n">
+      <c r="PF21" t="n">
         <v>0.675496688741722</v>
       </c>
-      <c r="PF21" t="n">
+      <c r="PG21" t="n">
         <v>0.455882352941176</v>
       </c>
-      <c r="PG21" t="n">
+      <c r="PH21" t="n">
         <v>0.220588235294118</v>
       </c>
-      <c r="PH21" t="n">
+      <c r="PI21" t="n">
         <v>36</v>
       </c>
-      <c r="PI21" t="n">
+      <c r="PJ21" t="n">
         <v>18</v>
       </c>
-      <c r="PJ21" t="n">
+      <c r="PK21" t="n">
         <v>32</v>
       </c>
-      <c r="PK21" t="n">
+      <c r="PL21" t="n">
         <v>5</v>
       </c>
-      <c r="PL21" t="n">
+      <c r="PM21" t="n">
         <v>13</v>
       </c>
-      <c r="PM21" t="n">
+      <c r="PN21" t="n">
         <v>19</v>
       </c>
-      <c r="PN21" t="n">
+      <c r="PO21" t="n">
         <v>11</v>
       </c>
-      <c r="PO21" t="n">
+      <c r="PP21" t="n">
         <v>0.390939597315436</v>
       </c>
-      <c r="PP21" t="n">
+      <c r="PQ21" t="n">
         <v>0.609060402684564</v>
       </c>
-      <c r="PQ21" t="n">
+      <c r="PR21" t="n">
         <v>0.397058823529412</v>
       </c>
-      <c r="PR21" t="n">
+      <c r="PS21" t="n">
         <v>0.602941176470588</v>
       </c>
-      <c r="PS21" t="n">
+      <c r="PT21" t="n">
         <v>1360</v>
       </c>
-      <c r="PT21" t="n">
+      <c r="PU21" t="n">
         <v>209</v>
       </c>
-      <c r="PU21" t="n">
+      <c r="PV21" t="n">
         <v>486</v>
       </c>
-      <c r="PV21" t="n">
+      <c r="PW21" t="n">
         <v>39</v>
       </c>
-      <c r="PW21" t="n">
+      <c r="PX21" t="n">
         <v>170</v>
       </c>
-      <c r="PX21" t="n">
+      <c r="PY21" t="n">
         <v>303</v>
       </c>
-      <c r="PY21" t="n">
+      <c r="PZ21" t="n">
         <v>113</v>
       </c>
-      <c r="PZ21" t="n">
+      <c r="QA21" t="n">
+        <v>0.705882352941177</v>
+      </c>
+      <c r="QB21" t="n">
         <v>0.488235294117647</v>
       </c>
-      <c r="QA21" t="n">
+      <c r="QC21" t="n">
         <v>0.217647058823529</v>
       </c>
-      <c r="QB21" t="n">
+      <c r="QD21" t="n">
         <v>1360</v>
       </c>
-      <c r="QC21" t="n">
+      <c r="QE21" t="n">
         <v>202</v>
       </c>
-      <c r="QD21" t="n">
+      <c r="QF21" t="n">
         <v>473</v>
       </c>
-      <c r="QE21" t="n">
+      <c r="QG21" t="n">
         <v>39</v>
       </c>
-      <c r="QF21" t="n">
+      <c r="QH21" t="n">
         <v>163</v>
       </c>
-      <c r="QG21" t="n">
+      <c r="QI21" t="n">
         <v>297</v>
       </c>
-      <c r="QH21" t="n">
+      <c r="QJ21" t="n">
         <v>109</v>
       </c>
-      <c r="QI21" t="n">
+      <c r="QK21" t="n">
         <v>0.705882352941177</v>
       </c>
-      <c r="QJ21" t="n">
+      <c r="QL21" t="n">
         <v>0.49079754601227</v>
       </c>
-      <c r="QK21" t="n">
+      <c r="QM21" t="n">
         <v>0.214723926380368</v>
       </c>
-      <c r="QL21" t="n">
+      <c r="QN21" t="n">
         <v>0</v>
       </c>
-      <c r="QM21" t="n">
+      <c r="QO21" t="n">
         <v>7</v>
       </c>
-      <c r="QN21" t="n">
+      <c r="QP21" t="n">
         <v>13</v>
       </c>
-      <c r="QO21" t="n">
+      <c r="QQ21" t="n">
         <v>0</v>
       </c>
-      <c r="QP21" t="n">
+      <c r="QR21" t="n">
         <v>7</v>
       </c>
-      <c r="QQ21" t="n">
+      <c r="QS21" t="n">
         <v>6</v>
       </c>
-      <c r="QR21" t="n">
+      <c r="QT21" t="n">
         <v>4</v>
       </c>
-      <c r="QS21" t="n">
+      <c r="QU21" t="n">
         <v>0.420588235294118</v>
       </c>
-      <c r="QT21" t="n">
+      <c r="QV21" t="n">
         <v>0.579411764705882</v>
       </c>
-      <c r="QU21" t="n">
+      <c r="QW21" t="n">
         <v>0.421779141104294</v>
       </c>
-      <c r="QV21" t="n">
+      <c r="QX21" t="n">
         <v>0.578220858895706</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B22" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C22" t="n">
         <v>2895</v>
@@ -28704,13 +28824,15 @@
       <c r="QT22"/>
       <c r="QU22"/>
       <c r="QV22"/>
+      <c r="QW22"/>
+      <c r="QX22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B23" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C23" t="n">
         <v>4421</v>
@@ -29884,171 +30006,177 @@
         <v>81</v>
       </c>
       <c r="OV23" t="n">
+        <v>0.629370629370629</v>
+      </c>
+      <c r="OW23" t="n">
         <v>0.39568345323741</v>
       </c>
-      <c r="OW23" t="n">
+      <c r="OX23" t="n">
         <v>0.23021582733813</v>
       </c>
-      <c r="OX23" t="n">
+      <c r="OY23" t="n">
         <v>1883</v>
       </c>
-      <c r="OY23" t="n">
+      <c r="OZ23" t="n">
         <v>141</v>
       </c>
-      <c r="OZ23" t="n">
+      <c r="PA23" t="n">
         <v>304</v>
       </c>
-      <c r="PA23" t="n">
+      <c r="PB23" t="n">
         <v>8</v>
       </c>
-      <c r="PB23" t="n">
+      <c r="PC23" t="n">
         <v>133</v>
       </c>
-      <c r="PC23" t="n">
+      <c r="PD23" t="n">
         <v>164</v>
       </c>
-      <c r="PD23" t="n">
+      <c r="PE23" t="n">
         <v>76</v>
       </c>
-      <c r="PE23" t="n">
+      <c r="PF23" t="n">
         <v>0.629370629370629</v>
       </c>
-      <c r="PF23" t="n">
+      <c r="PG23" t="n">
         <v>0.395348837209302</v>
       </c>
-      <c r="PG23" t="n">
+      <c r="PH23" t="n">
         <v>0.232558139534884</v>
       </c>
-      <c r="PH23" t="n">
+      <c r="PI23" t="n">
         <v>68</v>
       </c>
-      <c r="PI23" t="n">
+      <c r="PJ23" t="n">
         <v>10</v>
       </c>
-      <c r="PJ23" t="n">
+      <c r="PK23" t="n">
         <v>17</v>
       </c>
-      <c r="PK23" t="n">
+      <c r="PL23" t="n">
         <v>0</v>
       </c>
-      <c r="PL23" t="n">
+      <c r="PM23" t="n">
         <v>10</v>
       </c>
-      <c r="PM23" t="n">
+      <c r="PN23" t="n">
         <v>7</v>
       </c>
-      <c r="PN23" t="n">
+      <c r="PO23" t="n">
         <v>5</v>
       </c>
-      <c r="PO23" t="n">
+      <c r="PP23" t="n">
         <v>0.35431654676259</v>
       </c>
-      <c r="PP23" t="n">
+      <c r="PQ23" t="n">
         <v>0.64568345323741</v>
       </c>
-      <c r="PQ23" t="n">
+      <c r="PR23" t="n">
         <v>0.354651162790698</v>
       </c>
-      <c r="PR23" t="n">
+      <c r="PS23" t="n">
         <v>0.645348837209302</v>
       </c>
-      <c r="PS23" t="n">
+      <c r="PT23" t="n">
         <v>1545</v>
       </c>
-      <c r="PT23" t="n">
+      <c r="PU23" t="n">
         <v>171</v>
       </c>
-      <c r="PU23" t="n">
+      <c r="PV23" t="n">
         <v>392</v>
       </c>
-      <c r="PV23" t="n">
+      <c r="PW23" t="n">
         <v>6</v>
       </c>
-      <c r="PW23" t="n">
+      <c r="PX23" t="n">
         <v>165</v>
       </c>
-      <c r="PX23" t="n">
+      <c r="PY23" t="n">
         <v>222</v>
       </c>
-      <c r="PY23" t="n">
+      <c r="PZ23" t="n">
         <v>101</v>
       </c>
-      <c r="PZ23" t="n">
+      <c r="QA23" t="n">
+        <v>0.727272727272727</v>
+      </c>
+      <c r="QB23" t="n">
         <v>0.460606060606061</v>
       </c>
-      <c r="QA23" t="n">
+      <c r="QC23" t="n">
         <v>0.266666666666667</v>
       </c>
-      <c r="QB23" t="n">
+      <c r="QD23" t="n">
         <v>1511</v>
       </c>
-      <c r="QC23" t="n">
+      <c r="QE23" t="n">
         <v>164</v>
       </c>
-      <c r="QD23" t="n">
+      <c r="QF23" t="n">
         <v>382</v>
       </c>
-      <c r="QE23" t="n">
+      <c r="QG23" t="n">
         <v>6</v>
       </c>
-      <c r="QF23" t="n">
+      <c r="QH23" t="n">
         <v>158</v>
       </c>
-      <c r="QG23" t="n">
+      <c r="QI23" t="n">
         <v>219</v>
       </c>
-      <c r="QH23" t="n">
+      <c r="QJ23" t="n">
         <v>98</v>
       </c>
-      <c r="QI23" t="n">
+      <c r="QK23" t="n">
         <v>0.727272727272727</v>
       </c>
-      <c r="QJ23" t="n">
+      <c r="QL23" t="n">
         <v>0.481012658227848</v>
       </c>
-      <c r="QK23" t="n">
+      <c r="QM23" t="n">
         <v>0.246835443037975</v>
       </c>
-      <c r="QL23" t="n">
+      <c r="QN23" t="n">
         <v>34</v>
       </c>
-      <c r="QM23" t="n">
+      <c r="QO23" t="n">
         <v>7</v>
       </c>
-      <c r="QN23" t="n">
+      <c r="QP23" t="n">
         <v>10</v>
       </c>
-      <c r="QO23" t="n">
+      <c r="QQ23" t="n">
         <v>0</v>
       </c>
-      <c r="QP23" t="n">
+      <c r="QR23" t="n">
         <v>7</v>
       </c>
-      <c r="QQ23" t="n">
+      <c r="QS23" t="n">
         <v>3</v>
       </c>
-      <c r="QR23" t="n">
+      <c r="QT23" t="n">
         <v>3</v>
       </c>
-      <c r="QS23" t="n">
+      <c r="QU23" t="n">
         <v>0.412121212121212</v>
       </c>
-      <c r="QT23" t="n">
+      <c r="QV23" t="n">
         <v>0.587878787878788</v>
       </c>
-      <c r="QU23" t="n">
+      <c r="QW23" t="n">
         <v>0.42246835443038</v>
       </c>
-      <c r="QV23" t="n">
+      <c r="QX23" t="n">
         <v>0.57753164556962</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B24" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C24" t="n">
         <v>3955</v>
@@ -31222,171 +31350,177 @@
         <v>79</v>
       </c>
       <c r="OV24" t="n">
+        <v>0.632352941176471</v>
+      </c>
+      <c r="OW24" t="n">
         <v>0.412213740458015</v>
       </c>
-      <c r="OW24" t="n">
+      <c r="OX24" t="n">
         <v>0.213740458015267</v>
       </c>
-      <c r="OX24" t="n">
+      <c r="OY24" t="n">
         <v>1420</v>
       </c>
-      <c r="OY24" t="n">
+      <c r="OZ24" t="n">
         <v>130</v>
       </c>
-      <c r="OZ24" t="n">
+      <c r="PA24" t="n">
         <v>304</v>
       </c>
-      <c r="PA24" t="n">
+      <c r="PB24" t="n">
         <v>3</v>
       </c>
-      <c r="PB24" t="n">
+      <c r="PC24" t="n">
         <v>127</v>
       </c>
-      <c r="PC24" t="n">
+      <c r="PD24" t="n">
         <v>171</v>
       </c>
-      <c r="PD24" t="n">
+      <c r="PE24" t="n">
         <v>76</v>
       </c>
-      <c r="PE24" t="n">
-        <v>0.63235294117647</v>
-      </c>
       <c r="PF24" t="n">
+        <v>0.632352941176471</v>
+      </c>
+      <c r="PG24" t="n">
         <v>0.418032786885246</v>
       </c>
-      <c r="PG24" t="n">
+      <c r="PH24" t="n">
         <v>0.221311475409836</v>
       </c>
-      <c r="PH24" t="n">
+      <c r="PI24" t="n">
         <v>42</v>
       </c>
-      <c r="PI24" t="n">
+      <c r="PJ24" t="n">
         <v>10</v>
       </c>
-      <c r="PJ24" t="n">
+      <c r="PK24" t="n">
         <v>12</v>
       </c>
-      <c r="PK24" t="n">
+      <c r="PL24" t="n">
         <v>1</v>
       </c>
-      <c r="PL24" t="n">
+      <c r="PM24" t="n">
         <v>9</v>
-      </c>
-      <c r="PM24" t="n">
-        <v>3</v>
       </c>
       <c r="PN24" t="n">
         <v>3</v>
       </c>
       <c r="PO24" t="n">
+        <v>3</v>
+      </c>
+      <c r="PP24" t="n">
         <v>0.362595419847328</v>
       </c>
-      <c r="PP24" t="n">
+      <c r="PQ24" t="n">
         <v>0.637404580152672</v>
       </c>
-      <c r="PQ24" t="n">
+      <c r="PR24" t="n">
         <v>0.368852459016393</v>
       </c>
-      <c r="PR24" t="n">
+      <c r="PS24" t="n">
         <v>0.631147540983607</v>
       </c>
-      <c r="PS24" t="n">
+      <c r="PT24" t="n">
         <v>1297</v>
       </c>
-      <c r="PT24" t="n">
+      <c r="PU24" t="n">
         <v>167</v>
       </c>
-      <c r="PU24" t="n">
+      <c r="PV24" t="n">
         <v>316</v>
       </c>
-      <c r="PV24" t="n">
+      <c r="PW24" t="n">
         <v>12</v>
       </c>
-      <c r="PW24" t="n">
+      <c r="PX24" t="n">
         <v>155</v>
       </c>
-      <c r="PX24" t="n">
+      <c r="PY24" t="n">
         <v>159</v>
       </c>
-      <c r="PY24" t="n">
+      <c r="PZ24" t="n">
         <v>89</v>
       </c>
-      <c r="PZ24" t="n">
+      <c r="QA24" t="n">
+        <v>0.696774193548387</v>
+      </c>
+      <c r="QB24" t="n">
         <v>0.432258064516129</v>
       </c>
-      <c r="QA24" t="n">
+      <c r="QC24" t="n">
         <v>0.264516129032258</v>
       </c>
-      <c r="QB24" t="n">
+      <c r="QD24" t="n">
         <v>1155</v>
       </c>
-      <c r="QC24" t="n">
+      <c r="QE24" t="n">
         <v>151</v>
       </c>
-      <c r="QD24" t="n">
+      <c r="QF24" t="n">
         <v>285</v>
       </c>
-      <c r="QE24" t="n">
+      <c r="QG24" t="n">
         <v>9</v>
       </c>
-      <c r="QF24" t="n">
+      <c r="QH24" t="n">
         <v>142</v>
       </c>
-      <c r="QG24" t="n">
+      <c r="QI24" t="n">
         <v>141</v>
       </c>
-      <c r="QH24" t="n">
+      <c r="QJ24" t="n">
         <v>80</v>
       </c>
-      <c r="QI24" t="n">
+      <c r="QK24" t="n">
         <v>0.696774193548387</v>
       </c>
-      <c r="QJ24" t="n">
+      <c r="QL24" t="n">
         <v>0.443661971830986</v>
       </c>
-      <c r="QK24" t="n">
+      <c r="QM24" t="n">
         <v>0.253521126760563</v>
       </c>
-      <c r="QL24" t="n">
+      <c r="QN24" t="n">
         <v>142</v>
       </c>
-      <c r="QM24" t="n">
+      <c r="QO24" t="n">
         <v>16</v>
       </c>
-      <c r="QN24" t="n">
+      <c r="QP24" t="n">
         <v>31</v>
       </c>
-      <c r="QO24" t="n">
+      <c r="QQ24" t="n">
         <v>3</v>
       </c>
-      <c r="QP24" t="n">
+      <c r="QR24" t="n">
         <v>13</v>
       </c>
-      <c r="QQ24" t="n">
+      <c r="QS24" t="n">
         <v>18</v>
       </c>
-      <c r="QR24" t="n">
+      <c r="QT24" t="n">
         <v>9</v>
       </c>
-      <c r="QS24" t="n">
+      <c r="QU24" t="n">
         <v>0.390322580645161</v>
       </c>
-      <c r="QT24" t="n">
+      <c r="QV24" t="n">
         <v>0.609677419354839</v>
       </c>
-      <c r="QU24" t="n">
+      <c r="QW24" t="n">
         <v>0.39612676056338</v>
       </c>
-      <c r="QV24" t="n">
+      <c r="QX24" t="n">
         <v>0.60387323943662</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B25" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C25" t="n">
         <v>3009</v>
@@ -32560,171 +32694,177 @@
         <v>47</v>
       </c>
       <c r="OV25" t="n">
+        <v>0.488095238095238</v>
+      </c>
+      <c r="OW25" t="n">
         <v>0.325</v>
       </c>
-      <c r="OW25" t="n">
+      <c r="OX25" t="n">
         <v>0.15</v>
       </c>
-      <c r="OX25" t="n">
+      <c r="OY25" t="n">
         <v>87</v>
       </c>
-      <c r="OY25" t="n">
+      <c r="OZ25" t="n">
         <v>88</v>
       </c>
-      <c r="OZ25" t="n">
+      <c r="PA25" t="n">
         <v>170</v>
       </c>
-      <c r="PA25" t="n">
+      <c r="PB25" t="n">
         <v>9</v>
       </c>
-      <c r="PB25" t="n">
+      <c r="PC25" t="n">
         <v>79</v>
       </c>
-      <c r="PC25" t="n">
+      <c r="PD25" t="n">
         <v>89</v>
       </c>
-      <c r="PD25" t="n">
+      <c r="PE25" t="n">
         <v>45</v>
       </c>
-      <c r="PE25" t="n">
+      <c r="PF25" t="n">
         <v>0.488095238095238</v>
       </c>
-      <c r="PF25" t="n">
+      <c r="PG25" t="n">
         <v>0.306666666666667</v>
       </c>
-      <c r="PG25" t="n">
+      <c r="PH25" t="n">
         <v>0.146666666666667</v>
       </c>
-      <c r="PH25" t="n">
+      <c r="PI25" t="n">
         <v>0</v>
       </c>
-      <c r="PI25" t="n">
+      <c r="PJ25" t="n">
         <v>6</v>
       </c>
-      <c r="PJ25" t="n">
+      <c r="PK25" t="n">
         <v>10</v>
       </c>
-      <c r="PK25" t="n">
+      <c r="PL25" t="n">
         <v>1</v>
-      </c>
-      <c r="PL25" t="n">
-        <v>5</v>
       </c>
       <c r="PM25" t="n">
         <v>5</v>
       </c>
       <c r="PN25" t="n">
+        <v>5</v>
+      </c>
+      <c r="PO25" t="n">
         <v>2</v>
       </c>
-      <c r="PO25" t="n">
+      <c r="PP25" t="n">
         <v>0.28125</v>
       </c>
-      <c r="PP25" t="n">
+      <c r="PQ25" t="n">
         <v>0.71875</v>
       </c>
-      <c r="PQ25" t="n">
+      <c r="PR25" t="n">
         <v>0.266666666666667</v>
       </c>
-      <c r="PR25" t="n">
+      <c r="PS25" t="n">
         <v>0.733333333333333</v>
       </c>
-      <c r="PS25" t="n">
+      <c r="PT25" t="n">
         <v>345</v>
       </c>
-      <c r="PT25" t="n">
+      <c r="PU25" t="n">
         <v>134</v>
       </c>
-      <c r="PU25" t="n">
+      <c r="PV25" t="n">
         <v>318</v>
       </c>
-      <c r="PV25" t="n">
+      <c r="PW25" t="n">
         <v>6</v>
       </c>
-      <c r="PW25" t="n">
+      <c r="PX25" t="n">
         <v>128</v>
       </c>
-      <c r="PX25" t="n">
+      <c r="PY25" t="n">
         <v>189</v>
       </c>
-      <c r="PY25" t="n">
+      <c r="PZ25" t="n">
         <v>81</v>
       </c>
-      <c r="PZ25" t="n">
+      <c r="QA25" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="QB25" t="n">
         <v>0.4296875</v>
       </c>
-      <c r="QA25" t="n">
+      <c r="QC25" t="n">
         <v>0.2578125</v>
       </c>
-      <c r="QB25" t="n">
+      <c r="QD25" t="n">
         <v>345</v>
       </c>
-      <c r="QC25" t="n">
+      <c r="QE25" t="n">
         <v>131</v>
       </c>
-      <c r="QD25" t="n">
+      <c r="QF25" t="n">
         <v>313</v>
       </c>
-      <c r="QE25" t="n">
+      <c r="QG25" t="n">
         <v>4</v>
       </c>
-      <c r="QF25" t="n">
+      <c r="QH25" t="n">
         <v>127</v>
       </c>
-      <c r="QG25" t="n">
+      <c r="QI25" t="n">
         <v>185</v>
       </c>
-      <c r="QH25" t="n">
+      <c r="QJ25" t="n">
         <v>80</v>
       </c>
-      <c r="QI25" t="n">
+      <c r="QK25" t="n">
         <v>0.6875</v>
       </c>
-      <c r="QJ25" t="n">
+      <c r="QL25" t="n">
         <v>0.425196850393701</v>
       </c>
-      <c r="QK25" t="n">
+      <c r="QM25" t="n">
         <v>0.259842519685039</v>
       </c>
-      <c r="QL25" t="n">
+      <c r="QN25" t="n">
         <v>0</v>
       </c>
-      <c r="QM25" t="n">
+      <c r="QO25" t="n">
         <v>3</v>
       </c>
-      <c r="QN25" t="n">
+      <c r="QP25" t="n">
         <v>5</v>
       </c>
-      <c r="QO25" t="n">
+      <c r="QQ25" t="n">
         <v>2</v>
-      </c>
-      <c r="QP25" t="n">
-        <v>1</v>
-      </c>
-      <c r="QQ25" t="n">
-        <v>4</v>
       </c>
       <c r="QR25" t="n">
         <v>1</v>
       </c>
       <c r="QS25" t="n">
+        <v>4</v>
+      </c>
+      <c r="QT25" t="n">
+        <v>1</v>
+      </c>
+      <c r="QU25" t="n">
         <v>0.38671875</v>
       </c>
-      <c r="QT25" t="n">
+      <c r="QV25" t="n">
         <v>0.61328125</v>
       </c>
-      <c r="QU25" t="n">
+      <c r="QW25" t="n">
         <v>0.383858267716535</v>
       </c>
-      <c r="QV25" t="n">
+      <c r="QX25" t="n">
         <v>0.616141732283465</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B26" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C26" t="n">
         <v>1768</v>
@@ -33042,7 +33182,7 @@
         <v>0.386844786595721</v>
       </c>
       <c r="DD26" t="n">
-        <v>0.61315521340428</v>
+        <v>0.613155213404279</v>
       </c>
       <c r="DE26" t="n">
         <v>2608</v>
@@ -33349,7 +33489,7 @@
         <v>25</v>
       </c>
       <c r="HG26" t="n">
-        <v>0.31578947368421</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="HH26"/>
       <c r="HI26"/>
@@ -33894,171 +34034,177 @@
         <v>84</v>
       </c>
       <c r="OV26" t="n">
+        <v>0.697478991596639</v>
+      </c>
+      <c r="OW26" t="n">
         <v>0.464285714285714</v>
       </c>
-      <c r="OW26" t="n">
+      <c r="OX26" t="n">
         <v>0.223214285714286</v>
       </c>
-      <c r="OX26" t="n">
+      <c r="OY26" t="n">
         <v>1131</v>
       </c>
-      <c r="OY26" t="n">
+      <c r="OZ26" t="n">
         <v>110</v>
       </c>
-      <c r="OZ26" t="n">
+      <c r="PA26" t="n">
         <v>241</v>
       </c>
-      <c r="PA26" t="n">
+      <c r="PB26" t="n">
         <v>2</v>
       </c>
-      <c r="PB26" t="n">
+      <c r="PC26" t="n">
         <v>108</v>
       </c>
-      <c r="PC26" t="n">
+      <c r="PD26" t="n">
         <v>132</v>
       </c>
-      <c r="PD26" t="n">
+      <c r="PE26" t="n">
         <v>76</v>
       </c>
-      <c r="PE26" t="n">
+      <c r="PF26" t="n">
         <v>0.697478991596639</v>
       </c>
-      <c r="PF26" t="n">
+      <c r="PG26" t="n">
         <v>0.465346534653465</v>
       </c>
-      <c r="PG26" t="n">
+      <c r="PH26" t="n">
         <v>0.217821782178218</v>
       </c>
-      <c r="PH26" t="n">
+      <c r="PI26" t="n">
         <v>158</v>
       </c>
-      <c r="PI26" t="n">
+      <c r="PJ26" t="n">
         <v>11</v>
       </c>
-      <c r="PJ26" t="n">
+      <c r="PK26" t="n">
         <v>21</v>
       </c>
-      <c r="PK26" t="n">
+      <c r="PL26" t="n">
         <v>0</v>
       </c>
-      <c r="PL26" t="n">
+      <c r="PM26" t="n">
         <v>11</v>
       </c>
-      <c r="PM26" t="n">
+      <c r="PN26" t="n">
         <v>10</v>
       </c>
-      <c r="PN26" t="n">
+      <c r="PO26" t="n">
         <v>8</v>
       </c>
-      <c r="PO26" t="n">
+      <c r="PP26" t="n">
         <v>0.404017857142857</v>
       </c>
-      <c r="PP26" t="n">
+      <c r="PQ26" t="n">
         <v>0.595982142857143</v>
       </c>
-      <c r="PQ26" t="n">
+      <c r="PR26" t="n">
         <v>0.403465346534653</v>
       </c>
-      <c r="PR26" t="n">
+      <c r="PS26" t="n">
         <v>0.596534653465347</v>
       </c>
-      <c r="PS26" t="n">
+      <c r="PT26" t="n">
         <v>1310</v>
       </c>
-      <c r="PT26" t="n">
+      <c r="PU26" t="n">
         <v>100</v>
       </c>
-      <c r="PU26" t="n">
+      <c r="PV26" t="n">
         <v>194</v>
       </c>
-      <c r="PV26" t="n">
+      <c r="PW26" t="n">
         <v>5</v>
       </c>
-      <c r="PW26" t="n">
+      <c r="PX26" t="n">
         <v>95</v>
       </c>
-      <c r="PX26" t="n">
+      <c r="PY26" t="n">
         <v>96</v>
       </c>
-      <c r="PY26" t="n">
+      <c r="PZ26" t="n">
         <v>63</v>
       </c>
-      <c r="PZ26" t="n">
+      <c r="QA26" t="n">
+        <v>0.610526315789474</v>
+      </c>
+      <c r="QB26" t="n">
         <v>0.410526315789474</v>
       </c>
-      <c r="QA26" t="n">
+      <c r="QC26" t="n">
         <v>0.2</v>
       </c>
-      <c r="QB26" t="n">
+      <c r="QD26" t="n">
         <v>1265</v>
       </c>
-      <c r="QC26" t="n">
+      <c r="QE26" t="n">
         <v>95</v>
       </c>
-      <c r="QD26" t="n">
+      <c r="QF26" t="n">
         <v>185</v>
       </c>
-      <c r="QE26" t="n">
+      <c r="QG26" t="n">
         <v>5</v>
       </c>
-      <c r="QF26" t="n">
+      <c r="QH26" t="n">
         <v>90</v>
       </c>
-      <c r="QG26" t="n">
+      <c r="QI26" t="n">
         <v>92</v>
       </c>
-      <c r="QH26" t="n">
+      <c r="QJ26" t="n">
         <v>60</v>
       </c>
-      <c r="QI26" t="n">
+      <c r="QK26" t="n">
         <v>0.610526315789474</v>
       </c>
-      <c r="QJ26" t="n">
+      <c r="QL26" t="n">
         <v>0.4</v>
       </c>
-      <c r="QK26" t="n">
+      <c r="QM26" t="n">
         <v>0.2</v>
       </c>
-      <c r="QL26" t="n">
+      <c r="QN26" t="n">
         <v>45</v>
       </c>
-      <c r="QM26" t="n">
+      <c r="QO26" t="n">
         <v>5</v>
       </c>
-      <c r="QN26" t="n">
+      <c r="QP26" t="n">
         <v>9</v>
       </c>
-      <c r="QO26" t="n">
+      <c r="QQ26" t="n">
         <v>0</v>
       </c>
-      <c r="QP26" t="n">
+      <c r="QR26" t="n">
         <v>5</v>
       </c>
-      <c r="QQ26" t="n">
+      <c r="QS26" t="n">
         <v>4</v>
       </c>
-      <c r="QR26" t="n">
+      <c r="QT26" t="n">
         <v>3</v>
       </c>
-      <c r="QS26" t="n">
+      <c r="QU26" t="n">
         <v>0.357894736842105</v>
       </c>
-      <c r="QT26" t="n">
+      <c r="QV26" t="n">
         <v>0.642105263157895</v>
       </c>
-      <c r="QU26" t="n">
+      <c r="QW26" t="n">
         <v>0.35</v>
       </c>
-      <c r="QV26" t="n">
+      <c r="QX26" t="n">
         <v>0.65</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B27" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C27" t="n">
         <v>2509</v>
@@ -35232,171 +35378,177 @@
         <v>77</v>
       </c>
       <c r="OV27" t="n">
+        <v>0.643564356435644</v>
+      </c>
+      <c r="OW27" t="n">
         <v>0.41304347826087</v>
       </c>
-      <c r="OW27" t="n">
+      <c r="OX27" t="n">
         <v>0.217391304347826</v>
       </c>
-      <c r="OX27" t="n">
+      <c r="OY27" t="n">
         <v>1365</v>
       </c>
-      <c r="OY27" t="n">
+      <c r="OZ27" t="n">
         <v>98</v>
       </c>
-      <c r="OZ27" t="n">
+      <c r="PA27" t="n">
         <v>297</v>
       </c>
-      <c r="PA27" t="n">
+      <c r="PB27" t="n">
         <v>8</v>
       </c>
-      <c r="PB27" t="n">
+      <c r="PC27" t="n">
         <v>90</v>
       </c>
-      <c r="PC27" t="n">
+      <c r="PD27" t="n">
         <v>204</v>
       </c>
-      <c r="PD27" t="n">
+      <c r="PE27" t="n">
         <v>68</v>
       </c>
-      <c r="PE27" t="n">
+      <c r="PF27" t="n">
         <v>0.643564356435644</v>
       </c>
-      <c r="PF27" t="n">
+      <c r="PG27" t="n">
         <v>0.407407407407407</v>
       </c>
-      <c r="PG27" t="n">
+      <c r="PH27" t="n">
         <v>0.222222222222222</v>
       </c>
-      <c r="PH27" t="n">
+      <c r="PI27" t="n">
         <v>165</v>
       </c>
-      <c r="PI27" t="n">
+      <c r="PJ27" t="n">
         <v>11</v>
       </c>
-      <c r="PJ27" t="n">
+      <c r="PK27" t="n">
         <v>33</v>
       </c>
-      <c r="PK27" t="n">
+      <c r="PL27" t="n">
         <v>0</v>
       </c>
-      <c r="PL27" t="n">
+      <c r="PM27" t="n">
         <v>11</v>
       </c>
-      <c r="PM27" t="n">
+      <c r="PN27" t="n">
         <v>22</v>
       </c>
-      <c r="PN27" t="n">
+      <c r="PO27" t="n">
         <v>9</v>
       </c>
-      <c r="PO27" t="n">
+      <c r="PP27" t="n">
         <v>0.364130434782609</v>
       </c>
-      <c r="PP27" t="n">
+      <c r="PQ27" t="n">
         <v>0.635869565217391</v>
       </c>
-      <c r="PQ27" t="n">
+      <c r="PR27" t="n">
         <v>0.361111111111111</v>
       </c>
-      <c r="PR27" t="n">
+      <c r="PS27" t="n">
         <v>0.638888888888889</v>
       </c>
-      <c r="PS27" t="n">
+      <c r="PT27" t="n">
         <v>787</v>
       </c>
-      <c r="PT27" t="n">
+      <c r="PU27" t="n">
         <v>117</v>
       </c>
-      <c r="PU27" t="n">
+      <c r="PV27" t="n">
         <v>458</v>
       </c>
-      <c r="PV27" t="n">
+      <c r="PW27" t="n">
         <v>4</v>
       </c>
-      <c r="PW27" t="n">
+      <c r="PX27" t="n">
         <v>113</v>
       </c>
-      <c r="PX27" t="n">
+      <c r="PY27" t="n">
         <v>343</v>
       </c>
-      <c r="PY27" t="n">
+      <c r="PZ27" t="n">
         <v>94</v>
       </c>
-      <c r="PZ27" t="n">
+      <c r="QA27" t="n">
+        <v>0.619469026548673</v>
+      </c>
+      <c r="QB27" t="n">
         <v>0.389380530973451</v>
       </c>
-      <c r="QA27" t="n">
+      <c r="QC27" t="n">
         <v>0.230088495575221</v>
       </c>
-      <c r="QB27" t="n">
+      <c r="QD27" t="n">
         <v>787</v>
       </c>
-      <c r="QC27" t="n">
+      <c r="QE27" t="n">
         <v>106</v>
       </c>
-      <c r="QD27" t="n">
+      <c r="QF27" t="n">
         <v>398</v>
       </c>
-      <c r="QE27" t="n">
+      <c r="QG27" t="n">
         <v>4</v>
       </c>
-      <c r="QF27" t="n">
+      <c r="QH27" t="n">
         <v>102</v>
       </c>
-      <c r="QG27" t="n">
+      <c r="QI27" t="n">
         <v>294</v>
       </c>
-      <c r="QH27" t="n">
+      <c r="QJ27" t="n">
         <v>84</v>
       </c>
-      <c r="QI27" t="n">
+      <c r="QK27" t="n">
         <v>0.619469026548673</v>
       </c>
-      <c r="QJ27" t="n">
+      <c r="QL27" t="n">
         <v>0.392156862745098</v>
       </c>
-      <c r="QK27" t="n">
+      <c r="QM27" t="n">
         <v>0.235294117647059</v>
       </c>
-      <c r="QL27" t="n">
+      <c r="QN27" t="n">
         <v>0</v>
       </c>
-      <c r="QM27" t="n">
+      <c r="QO27" t="n">
         <v>11</v>
       </c>
-      <c r="QN27" t="n">
+      <c r="QP27" t="n">
         <v>60</v>
       </c>
-      <c r="QO27" t="n">
+      <c r="QQ27" t="n">
         <v>0</v>
       </c>
-      <c r="QP27" t="n">
+      <c r="QR27" t="n">
         <v>11</v>
       </c>
-      <c r="QQ27" t="n">
+      <c r="QS27" t="n">
         <v>49</v>
       </c>
-      <c r="QR27" t="n">
+      <c r="QT27" t="n">
         <v>10</v>
       </c>
-      <c r="QS27" t="n">
+      <c r="QU27" t="n">
         <v>0.349557522123894</v>
       </c>
-      <c r="QT27" t="n">
+      <c r="QV27" t="n">
         <v>0.650442477876106</v>
       </c>
-      <c r="QU27" t="n">
+      <c r="QW27" t="n">
         <v>0.352941176470588</v>
       </c>
-      <c r="QV27" t="n">
+      <c r="QX27" t="n">
         <v>0.647058823529412</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B28" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C28" t="n">
         <v>2472</v>
@@ -36570,171 +36722,177 @@
         <v>80</v>
       </c>
       <c r="OV28" t="n">
+        <v>0.677966101694915</v>
+      </c>
+      <c r="OW28" t="n">
         <v>0.428571428571429</v>
       </c>
-      <c r="OW28" t="n">
+      <c r="OX28" t="n">
         <v>0.241071428571429</v>
       </c>
-      <c r="OX28" t="n">
+      <c r="OY28" t="n">
         <v>1123</v>
       </c>
-      <c r="OY28" t="n">
+      <c r="OZ28" t="n">
         <v>108</v>
       </c>
-      <c r="OZ28" t="n">
+      <c r="PA28" t="n">
         <v>233</v>
       </c>
-      <c r="PA28" t="n">
+      <c r="PB28" t="n">
         <v>2</v>
       </c>
-      <c r="PB28" t="n">
+      <c r="PC28" t="n">
         <v>106</v>
       </c>
-      <c r="PC28" t="n">
+      <c r="PD28" t="n">
         <v>126</v>
       </c>
-      <c r="PD28" t="n">
+      <c r="PE28" t="n">
         <v>72</v>
       </c>
-      <c r="PE28" t="n">
+      <c r="PF28" t="n">
         <v>0.677966101694915</v>
       </c>
-      <c r="PF28" t="n">
+      <c r="PG28" t="n">
         <v>0.42</v>
       </c>
-      <c r="PG28" t="n">
+      <c r="PH28" t="n">
         <v>0.24</v>
       </c>
-      <c r="PH28" t="n">
+      <c r="PI28" t="n">
         <v>156</v>
       </c>
-      <c r="PI28" t="n">
+      <c r="PJ28" t="n">
         <v>15</v>
       </c>
-      <c r="PJ28" t="n">
+      <c r="PK28" t="n">
         <v>31</v>
       </c>
-      <c r="PK28" t="n">
+      <c r="PL28" t="n">
         <v>3</v>
       </c>
-      <c r="PL28" t="n">
+      <c r="PM28" t="n">
         <v>12</v>
       </c>
-      <c r="PM28" t="n">
+      <c r="PN28" t="n">
         <v>18</v>
       </c>
-      <c r="PN28" t="n">
+      <c r="PO28" t="n">
         <v>8</v>
       </c>
-      <c r="PO28" t="n">
+      <c r="PP28" t="n">
         <v>0.381696428571429</v>
       </c>
-      <c r="PP28" t="n">
+      <c r="PQ28" t="n">
         <v>0.618303571428571</v>
       </c>
-      <c r="PQ28" t="n">
+      <c r="PR28" t="n">
         <v>0.375</v>
       </c>
-      <c r="PR28" t="n">
+      <c r="PS28" t="n">
         <v>0.625</v>
       </c>
-      <c r="PS28" t="n">
+      <c r="PT28" t="n">
         <v>1136</v>
       </c>
-      <c r="PT28" t="n">
+      <c r="PU28" t="n">
         <v>129</v>
       </c>
-      <c r="PU28" t="n">
+      <c r="PV28" t="n">
         <v>302</v>
       </c>
-      <c r="PV28" t="n">
+      <c r="PW28" t="n">
         <v>2</v>
       </c>
-      <c r="PW28" t="n">
+      <c r="PX28" t="n">
         <v>127</v>
       </c>
-      <c r="PX28" t="n">
+      <c r="PY28" t="n">
         <v>173</v>
       </c>
-      <c r="PY28" t="n">
+      <c r="PZ28" t="n">
         <v>91</v>
       </c>
-      <c r="PZ28" t="n">
+      <c r="QA28" t="n">
+        <v>0.700787401574803</v>
+      </c>
+      <c r="QB28" t="n">
         <v>0.503937007874016</v>
       </c>
-      <c r="QA28" t="n">
+      <c r="QC28" t="n">
         <v>0.196850393700787</v>
       </c>
-      <c r="QB28" t="n">
+      <c r="QD28" t="n">
         <v>876</v>
       </c>
-      <c r="QC28" t="n">
+      <c r="QE28" t="n">
         <v>116</v>
       </c>
-      <c r="QD28" t="n">
+      <c r="QF28" t="n">
         <v>271</v>
       </c>
-      <c r="QE28" t="n">
+      <c r="QG28" t="n">
         <v>2</v>
       </c>
-      <c r="QF28" t="n">
+      <c r="QH28" t="n">
         <v>114</v>
       </c>
-      <c r="QG28" t="n">
+      <c r="QI28" t="n">
         <v>155</v>
       </c>
-      <c r="QH28" t="n">
+      <c r="QJ28" t="n">
         <v>82</v>
       </c>
-      <c r="QI28" t="n">
+      <c r="QK28" t="n">
         <v>0.700787401574803</v>
       </c>
-      <c r="QJ28" t="n">
+      <c r="QL28" t="n">
         <v>0.482456140350877</v>
       </c>
-      <c r="QK28" t="n">
+      <c r="QM28" t="n">
         <v>0.236842105263158</v>
       </c>
-      <c r="QL28" t="n">
+      <c r="QN28" t="n">
         <v>260</v>
       </c>
-      <c r="QM28" t="n">
+      <c r="QO28" t="n">
         <v>13</v>
       </c>
-      <c r="QN28" t="n">
+      <c r="QP28" t="n">
         <v>31</v>
       </c>
-      <c r="QO28" t="n">
+      <c r="QQ28" t="n">
         <v>0</v>
       </c>
-      <c r="QP28" t="n">
+      <c r="QR28" t="n">
         <v>13</v>
       </c>
-      <c r="QQ28" t="n">
+      <c r="QS28" t="n">
         <v>18</v>
       </c>
-      <c r="QR28" t="n">
+      <c r="QT28" t="n">
         <v>9</v>
       </c>
-      <c r="QS28" t="n">
+      <c r="QU28" t="n">
         <v>0.427165354330709</v>
       </c>
-      <c r="QT28" t="n">
+      <c r="QV28" t="n">
         <v>0.572834645669291</v>
       </c>
-      <c r="QU28" t="n">
+      <c r="QW28" t="n">
         <v>0.421052631578947</v>
       </c>
-      <c r="QV28" t="n">
+      <c r="QX28" t="n">
         <v>0.578947368421053</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B29" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C29" t="n">
         <v>2816</v>
@@ -36920,7 +37078,7 @@
         <v>0.5</v>
       </c>
       <c r="BL29" t="n">
-        <v>0.31578947368421</v>
+        <v>0.315789473684211</v>
       </c>
       <c r="BM29" t="n">
         <v>0.269230769230769</v>
@@ -37908,171 +38066,177 @@
         <v>96</v>
       </c>
       <c r="OV29" t="n">
+        <v>0.71195652173913</v>
+      </c>
+      <c r="OW29" t="n">
         <v>0.486033519553073</v>
       </c>
-      <c r="OW29" t="n">
+      <c r="OX29" t="n">
         <v>0.223463687150838</v>
       </c>
-      <c r="OX29" t="n">
+      <c r="OY29" t="n">
         <v>2141</v>
       </c>
-      <c r="OY29" t="n">
+      <c r="OZ29" t="n">
         <v>180</v>
       </c>
-      <c r="OZ29" t="n">
+      <c r="PA29" t="n">
         <v>341</v>
       </c>
-      <c r="PA29" t="n">
+      <c r="PB29" t="n">
         <v>5</v>
       </c>
-      <c r="PB29" t="n">
+      <c r="PC29" t="n">
         <v>175</v>
       </c>
-      <c r="PC29" t="n">
+      <c r="PD29" t="n">
         <v>165</v>
       </c>
-      <c r="PD29" t="n">
+      <c r="PE29" t="n">
         <v>95</v>
       </c>
-      <c r="PE29" t="n">
+      <c r="PF29" t="n">
         <v>0.71195652173913</v>
       </c>
-      <c r="PF29" t="n">
+      <c r="PG29" t="n">
         <v>0.482352941176471</v>
       </c>
-      <c r="PG29" t="n">
+      <c r="PH29" t="n">
         <v>0.223529411764706</v>
       </c>
-      <c r="PH29" t="n">
+      <c r="PI29" t="n">
         <v>0</v>
       </c>
-      <c r="PI29" t="n">
+      <c r="PJ29" t="n">
         <v>9</v>
       </c>
-      <c r="PJ29" t="n">
+      <c r="PK29" t="n">
         <v>10</v>
       </c>
-      <c r="PK29" t="n">
+      <c r="PL29" t="n">
         <v>0</v>
       </c>
-      <c r="PL29" t="n">
+      <c r="PM29" t="n">
         <v>9</v>
-      </c>
-      <c r="PM29" t="n">
-        <v>1</v>
       </c>
       <c r="PN29" t="n">
         <v>1</v>
       </c>
       <c r="PO29" t="n">
+        <v>1</v>
+      </c>
+      <c r="PP29" t="n">
         <v>0.420391061452514</v>
       </c>
-      <c r="PP29" t="n">
+      <c r="PQ29" t="n">
         <v>0.579608938547486</v>
       </c>
-      <c r="PQ29" t="n">
+      <c r="PR29" t="n">
         <v>0.417647058823529</v>
       </c>
-      <c r="PR29" t="n">
-        <v>0.58235294117647</v>
-      </c>
       <c r="PS29" t="n">
+        <v>0.582352941176471</v>
+      </c>
+      <c r="PT29" t="n">
         <v>2140</v>
       </c>
-      <c r="PT29" t="n">
+      <c r="PU29" t="n">
         <v>223</v>
       </c>
-      <c r="PU29" t="n">
+      <c r="PV29" t="n">
         <v>462</v>
       </c>
-      <c r="PV29" t="n">
+      <c r="PW29" t="n">
         <v>4</v>
       </c>
-      <c r="PW29" t="n">
+      <c r="PX29" t="n">
         <v>219</v>
       </c>
-      <c r="PX29" t="n">
+      <c r="PY29" t="n">
         <v>242</v>
       </c>
-      <c r="PY29" t="n">
+      <c r="PZ29" t="n">
         <v>132</v>
       </c>
-      <c r="PZ29" t="n">
+      <c r="QA29" t="n">
+        <v>0.73972602739726</v>
+      </c>
+      <c r="QB29" t="n">
         <v>0.506849315068493</v>
       </c>
-      <c r="QA29" t="n">
+      <c r="QC29" t="n">
         <v>0.232876712328767</v>
       </c>
-      <c r="QB29" t="n">
+      <c r="QD29" t="n">
         <v>2122</v>
       </c>
-      <c r="QC29" t="n">
+      <c r="QE29" t="n">
         <v>218</v>
       </c>
-      <c r="QD29" t="n">
+      <c r="QF29" t="n">
         <v>454</v>
       </c>
-      <c r="QE29" t="n">
+      <c r="QG29" t="n">
         <v>3</v>
       </c>
-      <c r="QF29" t="n">
+      <c r="QH29" t="n">
         <v>215</v>
       </c>
-      <c r="QG29" t="n">
+      <c r="QI29" t="n">
         <v>238</v>
       </c>
-      <c r="QH29" t="n">
+      <c r="QJ29" t="n">
         <v>129</v>
       </c>
-      <c r="QI29" t="n">
+      <c r="QK29" t="n">
         <v>0.73972602739726</v>
       </c>
-      <c r="QJ29" t="n">
+      <c r="QL29" t="n">
         <v>0.511627906976744</v>
       </c>
-      <c r="QK29" t="n">
+      <c r="QM29" t="n">
         <v>0.232558139534884</v>
       </c>
-      <c r="QL29" t="n">
+      <c r="QN29" t="n">
         <v>18</v>
       </c>
-      <c r="QM29" t="n">
+      <c r="QO29" t="n">
         <v>5</v>
       </c>
-      <c r="QN29" t="n">
+      <c r="QP29" t="n">
         <v>8</v>
       </c>
-      <c r="QO29" t="n">
+      <c r="QQ29" t="n">
         <v>1</v>
       </c>
-      <c r="QP29" t="n">
+      <c r="QR29" t="n">
         <v>4</v>
       </c>
-      <c r="QQ29" t="n">
+      <c r="QS29" t="n">
         <v>4</v>
       </c>
-      <c r="QR29" t="n">
+      <c r="QT29" t="n">
         <v>3</v>
       </c>
-      <c r="QS29" t="n">
+      <c r="QU29" t="n">
         <v>0.438356164383562</v>
       </c>
-      <c r="QT29" t="n">
+      <c r="QV29" t="n">
         <v>0.561643835616438</v>
       </c>
-      <c r="QU29" t="n">
+      <c r="QW29" t="n">
         <v>0.441860465116279</v>
       </c>
-      <c r="QV29" t="n">
+      <c r="QX29" t="n">
         <v>0.558139534883721</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B30" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C30" t="n">
         <v>2645</v>
@@ -39246,171 +39410,177 @@
         <v>117</v>
       </c>
       <c r="OV30" t="n">
+        <v>0.702702702702703</v>
+      </c>
+      <c r="OW30" t="n">
         <v>0.470588235294118</v>
       </c>
-      <c r="OW30" t="n">
+      <c r="OX30" t="n">
         <v>0.227941176470588</v>
       </c>
-      <c r="OX30" t="n">
+      <c r="OY30" t="n">
         <v>2163</v>
       </c>
-      <c r="OY30" t="n">
+      <c r="OZ30" t="n">
         <v>149</v>
       </c>
-      <c r="OZ30" t="n">
+      <c r="PA30" t="n">
         <v>432</v>
       </c>
-      <c r="PA30" t="n">
+      <c r="PB30" t="n">
         <v>14</v>
       </c>
-      <c r="PB30" t="n">
+      <c r="PC30" t="n">
         <v>135</v>
       </c>
-      <c r="PC30" t="n">
+      <c r="PD30" t="n">
         <v>281</v>
       </c>
-      <c r="PD30" t="n">
+      <c r="PE30" t="n">
         <v>108</v>
       </c>
-      <c r="PE30" t="n">
+      <c r="PF30" t="n">
         <v>0.702702702702703</v>
       </c>
-      <c r="PF30" t="n">
+      <c r="PG30" t="n">
         <v>0.471544715447154</v>
       </c>
-      <c r="PG30" t="n">
+      <c r="PH30" t="n">
         <v>0.219512195121951</v>
       </c>
-      <c r="PH30" t="n">
+      <c r="PI30" t="n">
         <v>110</v>
       </c>
-      <c r="PI30" t="n">
+      <c r="PJ30" t="n">
         <v>16</v>
       </c>
-      <c r="PJ30" t="n">
+      <c r="PK30" t="n">
         <v>28</v>
       </c>
-      <c r="PK30" t="n">
+      <c r="PL30" t="n">
         <v>3</v>
-      </c>
-      <c r="PL30" t="n">
-        <v>13</v>
       </c>
       <c r="PM30" t="n">
         <v>13</v>
       </c>
       <c r="PN30" t="n">
+        <v>13</v>
+      </c>
+      <c r="PO30" t="n">
         <v>9</v>
       </c>
-      <c r="PO30" t="n">
+      <c r="PP30" t="n">
         <v>0.409926470588235</v>
       </c>
-      <c r="PP30" t="n">
+      <c r="PQ30" t="n">
         <v>0.590073529411765</v>
       </c>
-      <c r="PQ30" t="n">
+      <c r="PR30" t="n">
         <v>0.408536585365854</v>
       </c>
-      <c r="PR30" t="n">
+      <c r="PS30" t="n">
         <v>0.591463414634146</v>
       </c>
-      <c r="PS30" t="n">
+      <c r="PT30" t="n">
         <v>571</v>
       </c>
-      <c r="PT30" t="n">
+      <c r="PU30" t="n">
         <v>156</v>
       </c>
-      <c r="PU30" t="n">
+      <c r="PV30" t="n">
         <v>303</v>
       </c>
-      <c r="PV30" t="n">
+      <c r="PW30" t="n">
         <v>31</v>
       </c>
-      <c r="PW30" t="n">
+      <c r="PX30" t="n">
         <v>125</v>
       </c>
-      <c r="PX30" t="n">
+      <c r="PY30" t="n">
         <v>171</v>
       </c>
-      <c r="PY30" t="n">
+      <c r="PZ30" t="n">
         <v>85</v>
       </c>
-      <c r="PZ30" t="n">
+      <c r="QA30" t="n">
+        <v>0.624</v>
+      </c>
+      <c r="QB30" t="n">
         <v>0.416</v>
       </c>
-      <c r="QA30" t="n">
+      <c r="QC30" t="n">
         <v>0.208</v>
       </c>
-      <c r="QB30" t="n">
+      <c r="QD30" t="n">
         <v>570</v>
       </c>
-      <c r="QC30" t="n">
+      <c r="QE30" t="n">
         <v>138</v>
       </c>
-      <c r="QD30" t="n">
+      <c r="QF30" t="n">
         <v>288</v>
       </c>
-      <c r="QE30" t="n">
+      <c r="QG30" t="n">
         <v>21</v>
       </c>
-      <c r="QF30" t="n">
+      <c r="QH30" t="n">
         <v>117</v>
       </c>
-      <c r="QG30" t="n">
+      <c r="QI30" t="n">
         <v>165</v>
       </c>
-      <c r="QH30" t="n">
+      <c r="QJ30" t="n">
         <v>81</v>
       </c>
-      <c r="QI30" t="n">
+      <c r="QK30" t="n">
         <v>0.624</v>
       </c>
-      <c r="QJ30" t="n">
+      <c r="QL30" t="n">
         <v>0.418803418803419</v>
       </c>
-      <c r="QK30" t="n">
+      <c r="QM30" t="n">
         <v>0.205128205128205</v>
       </c>
-      <c r="QL30" t="n">
+      <c r="QN30" t="n">
         <v>1</v>
       </c>
-      <c r="QM30" t="n">
+      <c r="QO30" t="n">
         <v>18</v>
       </c>
-      <c r="QN30" t="n">
+      <c r="QP30" t="n">
         <v>15</v>
       </c>
-      <c r="QO30" t="n">
+      <c r="QQ30" t="n">
         <v>10</v>
       </c>
-      <c r="QP30" t="n">
+      <c r="QR30" t="n">
         <v>8</v>
       </c>
-      <c r="QQ30" t="n">
+      <c r="QS30" t="n">
         <v>6</v>
       </c>
-      <c r="QR30" t="n">
+      <c r="QT30" t="n">
         <v>4</v>
       </c>
-      <c r="QS30" t="n">
+      <c r="QU30" t="n">
         <v>0.364</v>
       </c>
-      <c r="QT30" t="n">
+      <c r="QV30" t="n">
         <v>0.636</v>
       </c>
-      <c r="QU30" t="n">
+      <c r="QW30" t="n">
         <v>0.365384615384615</v>
       </c>
-      <c r="QV30" t="n">
+      <c r="QX30" t="n">
         <v>0.634615384615385</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B31" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C31" t="n">
         <v>3336</v>
@@ -40323,10 +40493,10 @@
       <c r="LK31"/>
       <c r="LL31"/>
       <c r="LM31" t="n">
-        <v>0.28858630952381</v>
+        <v>0.288586309523809</v>
       </c>
       <c r="LN31" t="n">
-        <v>0.71141369047619</v>
+        <v>0.711413690476191</v>
       </c>
       <c r="LO31" t="n">
         <v>3586</v>
@@ -40584,171 +40754,177 @@
         <v>68</v>
       </c>
       <c r="OV31" t="n">
+        <v>0.731481481481482</v>
+      </c>
+      <c r="OW31" t="n">
         <v>0.466019417475728</v>
       </c>
-      <c r="OW31" t="n">
+      <c r="OX31" t="n">
         <v>0.262135922330097</v>
       </c>
-      <c r="OX31" t="n">
+      <c r="OY31" t="n">
         <v>1431</v>
       </c>
-      <c r="OY31" t="n">
+      <c r="OZ31" t="n">
         <v>100</v>
       </c>
-      <c r="OZ31" t="n">
+      <c r="PA31" t="n">
         <v>188</v>
       </c>
-      <c r="PA31" t="n">
+      <c r="PB31" t="n">
         <v>2</v>
       </c>
-      <c r="PB31" t="n">
+      <c r="PC31" t="n">
         <v>98</v>
       </c>
-      <c r="PC31" t="n">
+      <c r="PD31" t="n">
         <v>88</v>
       </c>
-      <c r="PD31" t="n">
+      <c r="PE31" t="n">
         <v>64</v>
       </c>
-      <c r="PE31" t="n">
+      <c r="PF31" t="n">
         <v>0.731481481481482</v>
       </c>
-      <c r="PF31" t="n">
+      <c r="PG31" t="n">
         <v>0.462365591397849</v>
       </c>
-      <c r="PG31" t="n">
+      <c r="PH31" t="n">
         <v>0.268817204301075</v>
       </c>
-      <c r="PH31" t="n">
+      <c r="PI31" t="n">
         <v>55</v>
       </c>
-      <c r="PI31" t="n">
+      <c r="PJ31" t="n">
         <v>10</v>
       </c>
-      <c r="PJ31" t="n">
+      <c r="PK31" t="n">
         <v>15</v>
       </c>
-      <c r="PK31" t="n">
+      <c r="PL31" t="n">
         <v>0</v>
       </c>
-      <c r="PL31" t="n">
+      <c r="PM31" t="n">
         <v>10</v>
-      </c>
-      <c r="PM31" t="n">
-        <v>4</v>
       </c>
       <c r="PN31" t="n">
         <v>4</v>
       </c>
       <c r="PO31" t="n">
+        <v>4</v>
+      </c>
+      <c r="PP31" t="n">
         <v>0.41504854368932</v>
       </c>
-      <c r="PP31" t="n">
+      <c r="PQ31" t="n">
         <v>0.58495145631068</v>
       </c>
-      <c r="PQ31" t="n">
+      <c r="PR31" t="n">
         <v>0.413978494623656</v>
       </c>
-      <c r="PR31" t="n">
+      <c r="PS31" t="n">
         <v>0.586021505376344</v>
       </c>
-      <c r="PS31" t="n">
+      <c r="PT31" t="n">
         <v>1503</v>
       </c>
-      <c r="PT31" t="n">
+      <c r="PU31" t="n">
         <v>125</v>
       </c>
-      <c r="PU31" t="n">
+      <c r="PV31" t="n">
         <v>232</v>
       </c>
-      <c r="PV31" t="n">
+      <c r="PW31" t="n">
         <v>6</v>
       </c>
-      <c r="PW31" t="n">
+      <c r="PX31" t="n">
         <v>119</v>
       </c>
-      <c r="PX31" t="n">
+      <c r="PY31" t="n">
         <v>109</v>
       </c>
-      <c r="PY31" t="n">
+      <c r="PZ31" t="n">
         <v>67</v>
       </c>
-      <c r="PZ31" t="n">
+      <c r="QA31" t="n">
+        <v>0.65546218487395</v>
+      </c>
+      <c r="QB31" t="n">
         <v>0.470588235294118</v>
       </c>
-      <c r="QA31" t="n">
+      <c r="QC31" t="n">
         <v>0.184873949579832</v>
       </c>
-      <c r="QB31" t="n">
+      <c r="QD31" t="n">
         <v>1503</v>
       </c>
-      <c r="QC31" t="n">
+      <c r="QE31" t="n">
         <v>119</v>
       </c>
-      <c r="QD31" t="n">
+      <c r="QF31" t="n">
         <v>227</v>
       </c>
-      <c r="QE31" t="n">
+      <c r="QG31" t="n">
         <v>3</v>
       </c>
-      <c r="QF31" t="n">
+      <c r="QH31" t="n">
         <v>116</v>
       </c>
-      <c r="QG31" t="n">
+      <c r="QI31" t="n">
         <v>107</v>
       </c>
-      <c r="QH31" t="n">
+      <c r="QJ31" t="n">
         <v>65</v>
       </c>
-      <c r="QI31" t="n">
+      <c r="QK31" t="n">
         <v>0.65546218487395</v>
       </c>
-      <c r="QJ31" t="n">
+      <c r="QL31" t="n">
         <v>0.456896551724138</v>
       </c>
-      <c r="QK31" t="n">
+      <c r="QM31" t="n">
         <v>0.198275862068966</v>
       </c>
-      <c r="QL31" t="n">
+      <c r="QN31" t="n">
         <v>0</v>
       </c>
-      <c r="QM31" t="n">
+      <c r="QO31" t="n">
         <v>6</v>
       </c>
-      <c r="QN31" t="n">
+      <c r="QP31" t="n">
         <v>5</v>
       </c>
-      <c r="QO31" t="n">
+      <c r="QQ31" t="n">
         <v>3</v>
       </c>
-      <c r="QP31" t="n">
+      <c r="QR31" t="n">
         <v>3</v>
       </c>
-      <c r="QQ31" t="n">
+      <c r="QS31" t="n">
         <v>2</v>
       </c>
-      <c r="QR31" t="n">
+      <c r="QT31" t="n">
         <v>2</v>
       </c>
-      <c r="QS31" t="n">
+      <c r="QU31" t="n">
         <v>0.399159663865546</v>
       </c>
-      <c r="QT31" t="n">
+      <c r="QV31" t="n">
         <v>0.600840336134454</v>
       </c>
-      <c r="QU31" t="n">
+      <c r="QW31" t="n">
         <v>0.392241379310345</v>
       </c>
-      <c r="QV31" t="n">
+      <c r="QX31" t="n">
         <v>0.607758620689655</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B32" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C32" t="n">
         <v>2419</v>
@@ -41256,13 +41432,15 @@
       <c r="QT32"/>
       <c r="QU32"/>
       <c r="QV32"/>
+      <c r="QW32"/>
+      <c r="QX32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B33" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C33" t="n">
         <v>2636</v>
@@ -42436,162 +42614,168 @@
         <v>90</v>
       </c>
       <c r="OV33" t="n">
+        <v>0.698275862068966</v>
+      </c>
+      <c r="OW33" t="n">
         <v>0.45045045045045</v>
       </c>
-      <c r="OW33" t="n">
+      <c r="OX33" t="n">
         <v>0.243243243243243</v>
       </c>
-      <c r="OX33" t="n">
+      <c r="OY33" t="n">
         <v>1580</v>
       </c>
-      <c r="OY33" t="n">
+      <c r="OZ33" t="n">
         <v>106</v>
       </c>
-      <c r="OZ33" t="n">
+      <c r="PA33" t="n">
         <v>269</v>
       </c>
-      <c r="PA33" t="n">
+      <c r="PB33" t="n">
         <v>3</v>
       </c>
-      <c r="PB33" t="n">
+      <c r="PC33" t="n">
         <v>103</v>
       </c>
-      <c r="PC33" t="n">
+      <c r="PD33" t="n">
         <v>157</v>
       </c>
-      <c r="PD33" t="n">
+      <c r="PE33" t="n">
         <v>78</v>
       </c>
-      <c r="PE33" t="n">
+      <c r="PF33" t="n">
         <v>0.698275862068966</v>
       </c>
-      <c r="PF33" t="n">
+      <c r="PG33" t="n">
         <v>0.428571428571429</v>
       </c>
-      <c r="PG33" t="n">
+      <c r="PH33" t="n">
         <v>0.244897959183673</v>
       </c>
-      <c r="PH33" t="n">
+      <c r="PI33" t="n">
         <v>118</v>
       </c>
-      <c r="PI33" t="n">
+      <c r="PJ33" t="n">
         <v>13</v>
       </c>
-      <c r="PJ33" t="n">
+      <c r="PK33" t="n">
         <v>37</v>
       </c>
-      <c r="PK33" t="n">
+      <c r="PL33" t="n">
         <v>0</v>
       </c>
-      <c r="PL33" t="n">
+      <c r="PM33" t="n">
         <v>13</v>
       </c>
-      <c r="PM33" t="n">
+      <c r="PN33" t="n">
         <v>24</v>
       </c>
-      <c r="PN33" t="n">
+      <c r="PO33" t="n">
         <v>12</v>
       </c>
-      <c r="PO33" t="n">
+      <c r="PP33" t="n">
         <v>0.398648648648649</v>
       </c>
-      <c r="PP33" t="n">
+      <c r="PQ33" t="n">
         <v>0.601351351351351</v>
       </c>
-      <c r="PQ33" t="n">
+      <c r="PR33" t="n">
         <v>0.38265306122449</v>
       </c>
-      <c r="PR33" t="n">
+      <c r="PS33" t="n">
         <v>0.61734693877551</v>
       </c>
-      <c r="PS33" t="n">
+      <c r="PT33" t="n">
         <v>1531</v>
       </c>
-      <c r="PT33" t="n">
+      <c r="PU33" t="n">
         <v>107</v>
       </c>
-      <c r="PU33" t="n">
+      <c r="PV33" t="n">
         <v>226</v>
       </c>
-      <c r="PV33" t="n">
+      <c r="PW33" t="n">
         <v>11</v>
       </c>
-      <c r="PW33" t="n">
+      <c r="PX33" t="n">
         <v>96</v>
       </c>
-      <c r="PX33" t="n">
+      <c r="PY33" t="n">
         <v>125</v>
       </c>
-      <c r="PY33" t="n">
+      <c r="PZ33" t="n">
         <v>69</v>
       </c>
-      <c r="PZ33" t="n">
+      <c r="QA33" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="QB33" t="n">
         <v>0.4375</v>
       </c>
-      <c r="QA33" t="n">
+      <c r="QC33" t="n">
         <v>0.1875</v>
       </c>
-      <c r="QB33" t="n">
+      <c r="QD33" t="n">
         <v>1531</v>
       </c>
-      <c r="QC33" t="n">
+      <c r="QE33" t="n">
         <v>104</v>
       </c>
-      <c r="QD33" t="n">
+      <c r="QF33" t="n">
         <v>220</v>
       </c>
-      <c r="QE33" t="n">
+      <c r="QG33" t="n">
         <v>11</v>
       </c>
-      <c r="QF33" t="n">
+      <c r="QH33" t="n">
         <v>93</v>
       </c>
-      <c r="QG33" t="n">
+      <c r="QI33" t="n">
         <v>122</v>
       </c>
-      <c r="QH33" t="n">
+      <c r="QJ33" t="n">
         <v>67</v>
       </c>
-      <c r="QI33" t="n">
+      <c r="QK33" t="n">
         <v>0.625</v>
       </c>
-      <c r="QJ33" t="n">
+      <c r="QL33" t="n">
         <v>0.440860215053763</v>
       </c>
-      <c r="QK33" t="n">
+      <c r="QM33" t="n">
         <v>0.172043010752688</v>
       </c>
-      <c r="QL33" t="n">
+      <c r="QN33" t="n">
         <v>0</v>
       </c>
-      <c r="QM33" t="n">
+      <c r="QO33" t="n">
         <v>3</v>
       </c>
-      <c r="QN33" t="n">
+      <c r="QP33" t="n">
         <v>6</v>
       </c>
-      <c r="QO33" t="n">
+      <c r="QQ33" t="n">
         <v>0</v>
       </c>
-      <c r="QP33" t="n">
+      <c r="QR33" t="n">
         <v>3</v>
       </c>
-      <c r="QQ33" t="n">
+      <c r="QS33" t="n">
         <v>3</v>
       </c>
-      <c r="QR33" t="n">
+      <c r="QT33" t="n">
         <v>2</v>
       </c>
-      <c r="QS33" t="n">
+      <c r="QU33" t="n">
         <v>0.375</v>
       </c>
-      <c r="QT33" t="n">
+      <c r="QV33" t="n">
         <v>0.625</v>
       </c>
-      <c r="QU33" t="n">
+      <c r="QW33" t="n">
         <v>0.373655913978495</v>
       </c>
-      <c r="QV33" t="n">
+      <c r="QX33" t="n">
         <v>0.626344086021505</v>
       </c>
     </row>
